--- a/File_for_Import/Reports/Протокол проверки защит ГПА №1.xlsx
+++ b/File_for_Import/Reports/Протокол проверки защит ГПА №1.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W118"/>
+  <dimension ref="A1:W150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +682,7 @@
         <v/>
       </c>
       <c r="Q4" s="6">
-        <f>"АОбс. От ТР: Обороты ТК. Зависание стартера  "</f>
+        <f>"АОбс. От ТР: Аварийно-высокая Nнд  "</f>
         <v/>
       </c>
       <c r="R4" s="7">
@@ -776,7 +776,7 @@
         <v/>
       </c>
       <c r="Q5" s="6">
-        <f>"АОбс. От ТР: Низкие обороты ТК. Нет розжига  "</f>
+        <f>"АОбс. От ТР: Отказ канала Nнд  "</f>
         <v/>
       </c>
       <c r="R5" s="7">
@@ -870,7 +870,7 @@
         <v/>
       </c>
       <c r="Q6" s="6">
-        <f>"АОбс. От ТР: Ускорение ТК при зажигании  "</f>
+        <f>"АОбс. От ТР: Аварийно-высокая Nвд  "</f>
         <v/>
       </c>
       <c r="R6" s="7">
@@ -964,7 +964,7 @@
         <v/>
       </c>
       <c r="Q7" s="6">
-        <f>"АОбс. От ТР: Зависание ТК. Выход на МГ &gt; 10с  "</f>
+        <f>"АОбс. От ТР: Отказ канала Nвд  "</f>
         <v/>
       </c>
       <c r="R7" s="7">
@@ -1058,7 +1058,7 @@
         <v/>
       </c>
       <c r="Q8" s="6">
-        <f>"АОбс. От ТР: Отказ всех каналов Nтк и Nст  "</f>
+        <f>"АОбс. От ТР: Аварийно-высокая Nст  "</f>
         <v/>
       </c>
       <c r="R8" s="7">
@@ -1152,7 +1152,7 @@
         <v/>
       </c>
       <c r="Q9" s="6">
-        <f>"АОбс. От ТР: Отказ канала Nтк на запуске  "</f>
+        <f>"АОбс. От ТР: Отказ канала Nст  "</f>
         <v/>
       </c>
       <c r="R9" s="7">
@@ -1246,7 +1246,7 @@
         <v/>
       </c>
       <c r="Q10" s="6">
-        <f>"АОсс. От ТР: Аварийно высокая частота СТ  "</f>
+        <f>"АОбс. От ТР: Аварийно-низкая Тг за ТНД  "</f>
         <v/>
       </c>
       <c r="R10" s="7">
@@ -1340,7 +1340,7 @@
         <v/>
       </c>
       <c r="Q11" s="6">
-        <f>"АОсс. Аварийно-высокая частота СТ (БЗА)  "</f>
+        <f>"АОбс. От ТР: Аварийно-высокая Тг за ТНД  "</f>
         <v/>
       </c>
       <c r="R11" s="7">
@@ -1434,7 +1434,7 @@
         <v/>
       </c>
       <c r="Q12" s="6">
-        <f>"АОбс. От ТР: Отказ канала Nст на режиме  "</f>
+        <f>"АОбс. От ТР: Отказ каналов Тг за ТНД  "</f>
         <v/>
       </c>
       <c r="R12" s="7">
@@ -1528,7 +1528,7 @@
         <v/>
       </c>
       <c r="Q13" s="6">
-        <f>"АОбс. Высокая частота вращения стартера  "</f>
+        <f>"АОбс. От ТР: Отказ каналов Рв за КВД  "</f>
         <v/>
       </c>
       <c r="R13" s="7">
@@ -1622,7 +1622,7 @@
         <v/>
       </c>
       <c r="Q14" s="6">
-        <f>"АОбс. От ТР: Высокая T газа перед СТ на запуске  "</f>
+        <f>"АОбс. От ТР: Отказ управления НА КВД  "</f>
         <v/>
       </c>
       <c r="R14" s="7">
@@ -1716,7 +1716,7 @@
         <v/>
       </c>
       <c r="Q15" s="6">
-        <f>"АОбс. ОТ ТР: Низкая T газа перед СТ. Погасание  "</f>
+        <f>"АОбс. От ТР: Отказ управления КПВ  "</f>
         <v/>
       </c>
       <c r="R15" s="7">
@@ -1810,7 +1810,7 @@
         <v/>
       </c>
       <c r="Q16" s="6">
-        <f>"АОбс. От ТР: Высокая T газа перед СТ на режиме  "</f>
+        <f>"АОбс. От ТР: Отказ управления РВНА  "</f>
         <v/>
       </c>
       <c r="R16" s="7">
@@ -1904,7 +1904,7 @@
         <v/>
       </c>
       <c r="Q17" s="6">
-        <f>"АОбс. От ТР: Отказ всех каналов T газа перед СТ  "</f>
+        <f>"АОбс. От ТР: Отказ управления ТРК №1  "</f>
         <v/>
       </c>
       <c r="R17" s="7">
@@ -1998,7 +1998,7 @@
         <v/>
       </c>
       <c r="Q18" s="6">
-        <f>"АОбс. Аварийно-высокая T перед СТ (БЗА)  "</f>
+        <f>"АОбс. От ТР: Отказ управления ТРК №2  "</f>
         <v/>
       </c>
       <c r="R18" s="7">
@@ -2092,7 +2092,7 @@
         <v/>
       </c>
       <c r="Q19" s="6">
-        <f>"АОбс. От ТР: Нет розжига  "</f>
+        <f>"АОбс. От ТР: Отказ управления ТРК №3  "</f>
         <v/>
       </c>
       <c r="R19" s="7">
@@ -2186,7 +2186,7 @@
         <v/>
       </c>
       <c r="Q20" s="6">
-        <f>"АОбс. Помпаж  "</f>
+        <f>"АОбс. От ТР: Отказ управления ТРК №1  "</f>
         <v/>
       </c>
       <c r="R20" s="7">
@@ -2280,7 +2280,7 @@
         <v/>
       </c>
       <c r="Q21" s="6">
-        <f>"АОбс. От ТР: Аварийное рассогласование ДГ  "</f>
+        <f>"АОбс. От ТР: Отказ управления ТРК №2  "</f>
         <v/>
       </c>
       <c r="R21" s="7">
@@ -2374,7 +2374,7 @@
         <v/>
       </c>
       <c r="Q22" s="6">
-        <f>"АОбс. КПВ1 не открыт на пуске или останове  "</f>
+        <f>"АОбс. От ТР: Отказ управления ТРК №3  "</f>
         <v/>
       </c>
       <c r="R22" s="7">
@@ -2468,7 +2468,7 @@
         <v/>
       </c>
       <c r="Q23" s="6">
-        <f>"АОбс. КПВ1 не закрыт на режиме  "</f>
+        <f>"АОбс. От ТР: Нет розжига  "</f>
         <v/>
       </c>
       <c r="R23" s="7">
@@ -2562,7 +2562,7 @@
         <v/>
       </c>
       <c r="Q24" s="6">
-        <f>"АОбс. КПВ 5 не открыт на пуске или останове  "</f>
+        <f>"АОбс. От ТР: Погасание факела  "</f>
         <v/>
       </c>
       <c r="R24" s="7">
@@ -2656,7 +2656,7 @@
         <v/>
       </c>
       <c r="Q25" s="6">
-        <f>"АОбс. КПВ 5 не закрыт на режиме  "</f>
+        <f>"АОбс. От ТР: Помпаж  "</f>
         <v/>
       </c>
       <c r="R25" s="7">
@@ -2750,7 +2750,7 @@
         <v/>
       </c>
       <c r="Q26" s="6">
-        <f>"АОбс. КПВ 2 не открыт на пуске или останове  "</f>
+        <f>"АОбс. От ТР: Обобщенный АО от ТР  "</f>
         <v/>
       </c>
       <c r="R26" s="7">
@@ -2844,7 +2844,7 @@
         <v/>
       </c>
       <c r="Q27" s="6">
-        <f>"АОбс. КПВ 2 не закрыт на режиме  "</f>
+        <f>"АОбс. Низкая частота вращения ротора ВД на запуске  "</f>
         <v/>
       </c>
       <c r="R27" s="7">
@@ -2938,7 +2938,7 @@
         <v/>
       </c>
       <c r="Q28" s="6">
-        <f>"АОбс. КПВ 3 не открыт на пуске или останове  "</f>
+        <f>"АОбс. Аварийно-высокая вибрация промежуточного корпуса ГГ  "</f>
         <v/>
       </c>
       <c r="R28" s="7">
@@ -3032,7 +3032,7 @@
         <v/>
       </c>
       <c r="Q29" s="6">
-        <f>"АОбс. КПВ 3 не закрыт на режиме  "</f>
+        <f>"АОбс. Аварийно-высокая вибрация корпуса СТ  "</f>
         <v/>
       </c>
       <c r="R29" s="7">
@@ -3222,7 +3222,7 @@
         <v/>
       </c>
       <c r="Q39" s="6">
-        <f>"АОбс. КПВ 4 не открыт на пуске или останове  "</f>
+        <f>"АОбс. Отказ топливного регулирующего клапана  "</f>
         <v/>
       </c>
       <c r="R39" s="7">
@@ -3316,7 +3316,7 @@
         <v/>
       </c>
       <c r="Q40" s="6">
-        <f>"АОбс. КПВ 4 не закрыт на режиме  "</f>
+        <f>"АОбс. Аварийно-высокая Т слива масла из опоры турбины  "</f>
         <v/>
       </c>
       <c r="R40" s="7">
@@ -3410,7 +3410,7 @@
         <v/>
       </c>
       <c r="Q41" s="6">
-        <f>"АОбс. Обобщенный АО от ТР  "</f>
+        <f>"АОбс. Р масла САУ перед Ф18 тонкой очистки низкое на запуске  "</f>
         <v/>
       </c>
       <c r="R41" s="7">
@@ -3504,7 +3504,7 @@
         <v/>
       </c>
       <c r="Q42" s="6">
-        <f>"АОбс. Кран 6р (АПРК) не открыт на пуске  "</f>
+        <f>"АОбс. Р масла САУ за Ф18 тонкой очистки низкое на запуске  "</f>
         <v/>
       </c>
       <c r="R42" s="7">
@@ -3598,7 +3598,7 @@
         <v/>
       </c>
       <c r="Q43" s="6">
-        <f>"АОсс. Помпаж нагнетателя  "</f>
+        <f>"АОбс. Аварийно-низкое Р масла САУ РмСАУ1 и РмСАУ2  "</f>
         <v/>
       </c>
       <c r="R43" s="7">
@@ -3692,7 +3692,7 @@
         <v/>
       </c>
       <c r="Q44" s="6">
-        <f>"АОсс. БЭО сработал (от AD200)  "</f>
+        <f>"АОбс. Аварийно высокий dP на Ф18 тонкой очистки. Уход на МГ  "</f>
         <v/>
       </c>
       <c r="R44" s="7">
@@ -3786,7 +3786,7 @@
         <v/>
       </c>
       <c r="Q45" s="6">
-        <f>"АОсс. Авария от ПЛК (СТ AD200)  "</f>
+        <f>"АОбс. РЧТиН электростартера неисправен  "</f>
         <v/>
       </c>
       <c r="R45" s="7">
@@ -3880,7 +3880,7 @@
         <v/>
       </c>
       <c r="Q46" s="6">
-        <f>"АОсс. Нет связи с ПЛК AD200  "</f>
+        <f>"АОбс. Высокое Р топливного газа перед СК на запуске  "</f>
         <v/>
       </c>
       <c r="R46" s="7">
@@ -3974,7 +3974,7 @@
         <v/>
       </c>
       <c r="Q47" s="6">
-        <f>"АОбс. Высокое давление пускового газа на входе ВС  "</f>
+        <f>"АОбс. Высокое Р топливного газа перед СК  "</f>
         <v/>
       </c>
       <c r="R47" s="7">
@@ -4068,7 +4068,7 @@
         <v/>
       </c>
       <c r="Q48" s="6">
-        <f>"АОбс. Низкое давление топливного газа перед СК  "</f>
+        <f>"АОбс. Cамопроизвольное закрытие СК  "</f>
         <v/>
       </c>
       <c r="R48" s="7">
@@ -4162,7 +4162,7 @@
         <v/>
       </c>
       <c r="Q49" s="6">
-        <f>"АОбс. Низкое давление топливного газа перед МШ  "</f>
+        <f>"АОсс. Высокая Т газа на выходе ЦБК  "</f>
         <v/>
       </c>
       <c r="R49" s="7">
@@ -4256,7 +4256,7 @@
         <v/>
       </c>
       <c r="Q50" s="6">
-        <f>"АОбс. Высокая виброскорость корпуса ТК  "</f>
+        <f>"АОсс. Высокое Р газа на выходе ЦБК  "</f>
         <v/>
       </c>
       <c r="R50" s="7">
@@ -4350,7 +4350,7 @@
         <v/>
       </c>
       <c r="Q51" s="6">
-        <f>"АОбс. Высокая виброскорость корпуса ТК  "</f>
+        <f>"АОсс. Самопроизвольное закрытие крана 2  "</f>
         <v/>
       </c>
       <c r="R51" s="7">
@@ -4444,7 +4444,7 @@
         <v/>
       </c>
       <c r="Q52" s="6">
-        <f>"АОбс. Вибрация ГТД опасная  "</f>
+        <f>"АОсс. Самопроизвольное закрытие крана 6  "</f>
         <v/>
       </c>
       <c r="R52" s="7">
@@ -4538,7 +4538,7 @@
         <v/>
       </c>
       <c r="Q53" s="6">
-        <f>"АОбс. Высокая температура масла на сливе из ГТД  "</f>
+        <f>"АОбс. Клапан 6р (АПК) не открыт на пуске  "</f>
         <v/>
       </c>
       <c r="R53" s="7">
@@ -4632,7 +4632,7 @@
         <v/>
       </c>
       <c r="Q54" s="6">
-        <f>"АОбс. Низкое давление масла на входе в стартер  "</f>
+        <f>"АОсс. СТ1 сработал (Запуск БЭО)  "</f>
         <v/>
       </c>
       <c r="R54" s="7">
@@ -4726,7 +4726,7 @@
         <v/>
       </c>
       <c r="Q55" s="6">
-        <f>"АОбс. Низкое давление масла САР  "</f>
+        <f>"АОсс. ЭО запущен (BR1)  "</f>
         <v/>
       </c>
       <c r="R55" s="7">
@@ -4820,7 +4820,7 @@
         <v/>
       </c>
       <c r="Q56" s="6">
-        <f>"АОбс. Низкое P масла смазки на входе ТК (DI)  "</f>
+        <f>"АОбс. Отказ систем ГТД на запуске  "</f>
         <v/>
       </c>
       <c r="R56" s="7">
@@ -4914,7 +4914,7 @@
         <v/>
       </c>
       <c r="Q57" s="6">
-        <f>"АОбс. Низкое P масла смазки на входе ТК  "</f>
+        <f>"АОсс. Обрыв связи с контроллером ГПА  "</f>
         <v/>
       </c>
       <c r="R57" s="7">
@@ -4944,7 +4944,7 @@
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58">
-        <f>"System.PZ.A045"</f>
+        <f>"System.PZ.A053"</f>
         <v/>
       </c>
       <c r="B58">
@@ -5008,7 +5008,7 @@
         <v/>
       </c>
       <c r="Q58" s="6">
-        <f>"АОбс. Низкое P масла смазки на входе СТ (DI)  "</f>
+        <f>"АОсс. Аварийный останов от БЗД  "</f>
         <v/>
       </c>
       <c r="R58" s="7">
@@ -5038,7 +5038,7 @@
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59">
-        <f>"System.PZ.A046"</f>
+        <f>"System.PZ.A054"</f>
         <v/>
       </c>
       <c r="B59">
@@ -5102,7 +5102,7 @@
         <v/>
       </c>
       <c r="Q59" s="6">
-        <f>"АОбс. Низкое P масла смазки на входе СТ  "</f>
+        <f>"ВОбс. Низкий объём масла в МБД  "</f>
         <v/>
       </c>
       <c r="R59" s="7">
@@ -5132,7 +5132,7 @@
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60">
-        <f>"System.PZ.A047"</f>
+        <f>"System.PZ.A055"</f>
         <v/>
       </c>
       <c r="B60">
@@ -5196,7 +5196,7 @@
         <v/>
       </c>
       <c r="Q60" s="6">
-        <f>"АОбс. Стружка в маслосистеме двигателя  "</f>
+        <f>"ВОбс. Высокий объём масла в МБД  "</f>
         <v/>
       </c>
       <c r="R60" s="7">
@@ -5226,7 +5226,7 @@
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61">
-        <f>"System.PZ.A048"</f>
+        <f>"System.PZ.A056"</f>
         <v/>
       </c>
       <c r="B61">
@@ -5290,7 +5290,7 @@
         <v/>
       </c>
       <c r="Q61" s="6">
-        <f>"АОбс. Уровень масла в МБД аварийный  "</f>
+        <f>"АОбс. Аварийно-низкое Рм в нагн.магистрали ГТД (при Nvd&lt;11300)  "</f>
         <v/>
       </c>
       <c r="R61" s="7">
@@ -5320,7 +5320,7 @@
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62">
-        <f>"System.PZ.A049"</f>
+        <f>"System.PZ.A057"</f>
         <v/>
       </c>
       <c r="B62">
@@ -5384,7 +5384,7 @@
         <v/>
       </c>
       <c r="Q62" s="6">
-        <f>"АОсс. Высокая температура масла на выходе ПП Н  "</f>
+        <f>"АОбс. Аварийно-низкое Рм в нагн.магистрали ГТД (при Nvd&gt;11300)  "</f>
         <v/>
       </c>
       <c r="R62" s="7">
@@ -5414,7 +5414,7 @@
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63">
-        <f>"System.PZ.A050"</f>
+        <f>"System.PZ.A058"</f>
         <v/>
       </c>
       <c r="B63">
@@ -5478,7 +5478,7 @@
         <v/>
       </c>
       <c r="Q63" s="6">
-        <f>"АОсс. Высокая температура масла на выходе ЗП Н  "</f>
+        <f>"АОбс. Аварийно-низкое Рм в нагн.магистрали ГТД на запуске  "</f>
         <v/>
       </c>
       <c r="R63" s="7">
@@ -5508,7 +5508,7 @@
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64">
-        <f>"System.PZ.A051"</f>
+        <f>"System.PZ.A059"</f>
         <v/>
       </c>
       <c r="B64">
@@ -5572,7 +5572,7 @@
         <v/>
       </c>
       <c r="Q64" s="6">
-        <f>"АОсс. Высокая температура масла на выходе УП Н  "</f>
+        <f>"АОбс. Низкое Р масла в магистрали общей откачки  "</f>
         <v/>
       </c>
       <c r="R64" s="7">
@@ -5698,7 +5698,7 @@
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74">
-        <f>"System.PZ.A052"</f>
+        <f>"System.PZ.A060"</f>
         <v/>
       </c>
       <c r="B74">
@@ -5762,7 +5762,7 @@
         <v/>
       </c>
       <c r="Q74" s="6">
-        <f>"АОсс. Низкий перепад давления масло-газ Н (DI)  "</f>
+        <f>"АОбс. Аварийно-высокая скорость падения Рм в магистрали ОО  "</f>
         <v/>
       </c>
       <c r="R74" s="7">
@@ -5792,7 +5792,7 @@
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75">
-        <f>"System.PZ.A053"</f>
+        <f>"System.PZ.A061"</f>
         <v/>
       </c>
       <c r="B75">
@@ -5856,7 +5856,7 @@
         <v/>
       </c>
       <c r="Q75" s="6">
-        <f>"АОсс. Низкий перепад давления масло-газ Н  "</f>
+        <f>"АОбс. Р масла в магистрали общей откачки низкое на запуске  "</f>
         <v/>
       </c>
       <c r="R75" s="7">
@@ -5886,7 +5886,7 @@
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76">
-        <f>"System.PZ.A054"</f>
+        <f>"System.PZ.A062"</f>
         <v/>
       </c>
       <c r="B76">
@@ -5950,7 +5950,7 @@
         <v/>
       </c>
       <c r="Q76" s="6">
-        <f>"АОсс. Низкое давление масла-смазки (DI)  "</f>
+        <f>"АОбс. Аварийно-высокая Т масла в магистрали общей откачки  "</f>
         <v/>
       </c>
       <c r="R76" s="7">
@@ -5980,7 +5980,7 @@
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77">
-        <f>"System.PZ.A055"</f>
+        <f>"System.PZ.A063"</f>
         <v/>
       </c>
       <c r="B77">
@@ -6044,7 +6044,7 @@
         <v/>
       </c>
       <c r="Q77" s="6">
-        <f>"АОсс. Низкое давление масла-смазки  "</f>
+        <f>"АОбс. Стружка в магистрали ОО (СС1 и СС2)  "</f>
         <v/>
       </c>
       <c r="R77" s="7">
@@ -6074,7 +6074,7 @@
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78">
-        <f>"System.PZ.A056"</f>
+        <f>"System.PZ.A064"</f>
         <v/>
       </c>
       <c r="B78">
@@ -6138,7 +6138,7 @@
         <v/>
       </c>
       <c r="Q78" s="6">
-        <f>"АОсс. Высокая температура масла на входе Н  "</f>
+        <f>"АОбс. Стружка в магистр. откачки масла из ЦС  "</f>
         <v/>
       </c>
       <c r="R78" s="7">
@@ -6168,7 +6168,7 @@
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79">
-        <f>"System.PZ.A057"</f>
+        <f>"System.PZ.A065"</f>
         <v/>
       </c>
       <c r="B79">
@@ -6232,7 +6232,7 @@
         <v/>
       </c>
       <c r="Q79" s="6">
-        <f>"АОсс. Уровень масла в МБН аварийный  "</f>
+        <f>"ВОбс. Низкое избыточное давление воздуха в турбоблоке  "</f>
         <v/>
       </c>
       <c r="R79" s="7">
@@ -6262,7 +6262,7 @@
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80">
-        <f>"System.PZ.A058"</f>
+        <f>"System.PZ.A066"</f>
         <v/>
       </c>
       <c r="B80">
@@ -6326,7 +6326,7 @@
         <v/>
       </c>
       <c r="Q80" s="6">
-        <f>"АОсс. Пожар ГПА  "</f>
+        <f>"АОсс. Высокая Т вкладыша ОП ЦБК  "</f>
         <v/>
       </c>
       <c r="R80" s="7">
@@ -6356,7 +6356,7 @@
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81">
-        <f>"System.PZ.A059"</f>
+        <f>"System.PZ.A067"</f>
         <v/>
       </c>
       <c r="B81">
@@ -6420,7 +6420,7 @@
         <v/>
       </c>
       <c r="Q81" s="6">
-        <f>"АОсс. Загазованность ГПА опасная  "</f>
+        <f>"АОсс. Высокая Т вкладыша ОУП ЦБК  "</f>
         <v/>
       </c>
       <c r="R81" s="7">
@@ -6450,7 +6450,7 @@
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82">
-        <f>"System.PZ.A060"</f>
+        <f>"System.PZ.A068"</f>
         <v/>
       </c>
       <c r="B82">
@@ -6514,7 +6514,7 @@
         <v/>
       </c>
       <c r="Q82" s="6">
-        <f>"АОсс. Высокая температура нагнетателя на выходе Н  "</f>
+        <f>"АОсс. Высокая Т рабочих колодок ОУП ЦБК  "</f>
         <v/>
       </c>
       <c r="R82" s="7">
@@ -6544,7 +6544,7 @@
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83">
-        <f>"System.PZ.A061"</f>
+        <f>"System.PZ.A069"</f>
         <v/>
       </c>
       <c r="B83">
@@ -6608,7 +6608,7 @@
         <v/>
       </c>
       <c r="Q83" s="6">
-        <f>"АОсс. Высокий осевой сдвиг ротора нагнетателя  "</f>
+        <f>"АОсс. Высокая Т установочных колодок ОУП ЦБК  "</f>
         <v/>
       </c>
       <c r="R83" s="7">
@@ -6638,7 +6638,7 @@
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84">
-        <f>"System.PZ.A062"</f>
+        <f>"System.PZ.A070"</f>
         <v/>
       </c>
       <c r="B84">
@@ -6702,7 +6702,7 @@
         <v/>
       </c>
       <c r="Q84" s="6">
-        <f>"АОсс. Высокий осевой сдвиг ротора нагнетателя  "</f>
+        <f>"АОсс. Высокое виброперемещение ротора в ПО (гориз.)  "</f>
         <v/>
       </c>
       <c r="R84" s="7">
@@ -6732,7 +6732,7 @@
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85">
-        <f>"System.PZ.A063"</f>
+        <f>"System.PZ.A071"</f>
         <v/>
       </c>
       <c r="B85">
@@ -6796,7 +6796,7 @@
         <v/>
       </c>
       <c r="Q85" s="6">
-        <f>"АОсс. Высокое виброперемещение ПО Н (гор.)  "</f>
+        <f>"АОсс. Высокое виброперемещение ротора в ПО (вертик.)  "</f>
         <v/>
       </c>
       <c r="R85" s="7">
@@ -6826,7 +6826,7 @@
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86">
-        <f>"System.PZ.A064"</f>
+        <f>"System.PZ.A072"</f>
         <v/>
       </c>
       <c r="B86">
@@ -6890,7 +6890,7 @@
         <v/>
       </c>
       <c r="Q86" s="6">
-        <f>"АОсс. Высокое виброперемещение ПО Н (верт.)  "</f>
+        <f>"АОсс. Высокое виброперемещение ротора в ЗО (гориз.)  "</f>
         <v/>
       </c>
       <c r="R86" s="7">
@@ -6920,7 +6920,7 @@
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87">
-        <f>"System.PZ.A065"</f>
+        <f>"System.PZ.A073"</f>
         <v/>
       </c>
       <c r="B87">
@@ -6984,7 +6984,7 @@
         <v/>
       </c>
       <c r="Q87" s="6">
-        <f>"АОсс. Высокое виброперемещение ЗО Н (гор.)  "</f>
+        <f>"АОсс. Высокое виброперемещение ротора в ЗО (вертик.)  "</f>
         <v/>
       </c>
       <c r="R87" s="7">
@@ -7014,7 +7014,7 @@
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88">
-        <f>"System.PZ.A066"</f>
+        <f>"System.PZ.A074"</f>
         <v/>
       </c>
       <c r="B88">
@@ -7078,7 +7078,7 @@
         <v/>
       </c>
       <c r="Q88" s="6">
-        <f>"АОсс. Высокое виброперемещение ЗО Н (верт.)  "</f>
+        <f>"АОсс. Высокий осевой сдвиг ротора 1  "</f>
         <v/>
       </c>
       <c r="R88" s="7">
@@ -7108,7 +7108,7 @@
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89">
-        <f>"System.PZ.A067"</f>
+        <f>"System.PZ.A075"</f>
         <v/>
       </c>
       <c r="B89">
@@ -7172,7 +7172,7 @@
         <v/>
       </c>
       <c r="Q89" s="6">
-        <f>"АОсс. Самопроизвольное закрытие крана 1  "</f>
+        <f>"АОсс. Высокий осевой сдвиг ротора 2  "</f>
         <v/>
       </c>
       <c r="R89" s="7">
@@ -7202,7 +7202,7 @@
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90">
-        <f>"System.PZ.A068"</f>
+        <f>"System.PZ.A076"</f>
         <v/>
       </c>
       <c r="B90">
@@ -7266,7 +7266,7 @@
         <v/>
       </c>
       <c r="Q90" s="6">
-        <f>"АОсс. Самопроизвольное закрытие крана 2  "</f>
+        <f>"ВОбс. Низкий объём масла в МБК  "</f>
         <v/>
       </c>
       <c r="R90" s="7">
@@ -7296,7 +7296,7 @@
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91">
-        <f>"System.PZ.A069"</f>
+        <f>"System.PZ.A077"</f>
         <v/>
       </c>
       <c r="B91">
@@ -7360,7 +7360,7 @@
         <v/>
       </c>
       <c r="Q91" s="6">
-        <f>"АОсс. Самопроизвольное закрытие крана 6  "</f>
+        <f>"АОсс. Низкое Р масла на входе в ЦБН т.1  "</f>
         <v/>
       </c>
       <c r="R91" s="7">
@@ -7390,7 +7390,7 @@
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92">
-        <f>"System.PZ.A070"</f>
+        <f>"System.PZ.A078"</f>
         <v/>
       </c>
       <c r="B92">
@@ -7454,7 +7454,7 @@
         <v/>
       </c>
       <c r="Q92" s="6">
-        <f>"АОсс. Время работы ВС велико  "</f>
+        <f>"АОсс. Низкое Р масла на входе в ЦБН т.2  "</f>
         <v/>
       </c>
       <c r="R92" s="7">
@@ -7484,7 +7484,7 @@
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93">
-        <f>"System.PZ.A071"</f>
+        <f>"System.PZ.A079"</f>
         <v/>
       </c>
       <c r="B93">
@@ -7548,7 +7548,7 @@
         <v/>
       </c>
       <c r="Q93" s="6">
-        <f>"АОсс. Кнопка АО нажата (ПРУ)  "</f>
+        <f>"АОсс. Низкое давление масла смазки компрессора  "</f>
         <v/>
       </c>
       <c r="R93" s="7">
@@ -7578,7 +7578,7 @@
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94">
-        <f>"System.PZ.A072"</f>
+        <f>"System.PZ.A080"</f>
         <v/>
       </c>
       <c r="B94">
@@ -7642,7 +7642,7 @@
         <v/>
       </c>
       <c r="Q94" s="6">
-        <f>"АОсс. Кнопка ЭО на ПРУ нажата  "</f>
+        <f>"АОсс. Низкое Р барьерного воздуха   "</f>
         <v/>
       </c>
       <c r="R94" s="7">
@@ -7672,7 +7672,7 @@
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95">
-        <f>"System.PZ.A073"</f>
+        <f>"System.PZ.A081"</f>
         <v/>
       </c>
       <c r="B95">
@@ -7736,7 +7736,7 @@
         <v/>
       </c>
       <c r="Q95" s="6">
-        <f>"АОсс. АО от САУ КЦ  "</f>
+        <f>"АОсс. Высокое Р утечки после 1-й ступени ГДУ (всас)  "</f>
         <v/>
       </c>
       <c r="R95" s="7">
@@ -7766,7 +7766,7 @@
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96">
-        <f>"System.PZ.A074"</f>
+        <f>"System.PZ.A082"</f>
         <v/>
       </c>
       <c r="B96">
@@ -7830,7 +7830,7 @@
         <v/>
       </c>
       <c r="Q96" s="6">
-        <f>"АОсс. ЭАО от САУ КЦ  "</f>
+        <f>"АОсс. Высокое Р утечки после 1-й ступени ГДУ (нагн)  "</f>
         <v/>
       </c>
       <c r="R96" s="7">
@@ -7860,7 +7860,7 @@
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97">
-        <f>"System.PZ.A075"</f>
+        <f>"System.PZ.A083"</f>
         <v/>
       </c>
       <c r="B97">
@@ -7924,7 +7924,7 @@
         <v/>
       </c>
       <c r="Q97" s="6">
-        <f>"АОсс. АОсс по команде оператора  "</f>
+        <f>"АОсс. Высокое Р утечки после 1-й ступени ГДУ (всас)  "</f>
         <v/>
       </c>
       <c r="R97" s="7">
@@ -7954,7 +7954,7 @@
     </row>
     <row r="98" ht="20" customHeight="1">
       <c r="A98">
-        <f>"System.PZ.A076"</f>
+        <f>"System.PZ.A084"</f>
         <v/>
       </c>
       <c r="B98">
@@ -8018,7 +8018,7 @@
         <v/>
       </c>
       <c r="Q98" s="6">
-        <f>"АОбс. АОбс по команде оператора  "</f>
+        <f>"АОсс. Высокое Р утечки после 1-й ступени ГДУ (нагн)  "</f>
         <v/>
       </c>
       <c r="R98" s="7">
@@ -8048,7 +8048,7 @@
     </row>
     <row r="99" ht="20" customHeight="1">
       <c r="A99">
-        <f>"System.PZ.A077"</f>
+        <f>"System.PZ.A085"</f>
         <v/>
       </c>
       <c r="B99">
@@ -8112,7 +8112,7 @@
         <v/>
       </c>
       <c r="Q99" s="6">
-        <f>"АОсс. АОсс по команде оператора с ПРУ  "</f>
+        <f>"АОсс. Разрыв предохранительной мембраны MПУ1   "</f>
         <v/>
       </c>
       <c r="R99" s="7">
@@ -8238,7 +8238,7 @@
     </row>
     <row r="109" ht="20" customHeight="1">
       <c r="A109">
-        <f>"System.PZ.A078"</f>
+        <f>"System.PZ.A086"</f>
         <v/>
       </c>
       <c r="B109">
@@ -8302,7 +8302,7 @@
         <v/>
       </c>
       <c r="Q109" s="6">
-        <f>"АОбс. АОбс по команде оператора с ПРУ  "</f>
+        <f>"АОсс. Разрыв предохранительной мембраны MПУ2  "</f>
         <v/>
       </c>
       <c r="R109" s="7">
@@ -8332,7 +8332,7 @@
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110">
-        <f>"System.PZ.A079"</f>
+        <f>"System.PZ.A087"</f>
         <v/>
       </c>
       <c r="B110">
@@ -8396,7 +8396,7 @@
         <v/>
       </c>
       <c r="Q110" s="6">
-        <f>"АОсс. БЭО сработал (от AD100)  "</f>
+        <f>"АОсс. Загаз. после 2ой ст. СГУ со ст. привода 20% от НКПР  "</f>
         <v/>
       </c>
       <c r="R110" s="7">
@@ -8426,7 +8426,7 @@
     </row>
     <row r="111" ht="20" customHeight="1">
       <c r="A111">
-        <f>"System.PZ.A080"</f>
+        <f>"System.PZ.A088"</f>
         <v/>
       </c>
       <c r="B111">
@@ -8490,7 +8490,7 @@
         <v/>
       </c>
       <c r="Q111" s="6">
-        <f>"АОсс. Авария от ПЛК (СТ AD100)  "</f>
+        <f>"АОсс. Загаз. после 2ой ст. СГУ со ст. свободн.20% от НКПР  "</f>
         <v/>
       </c>
       <c r="R111" s="7">
@@ -8520,7 +8520,7 @@
     </row>
     <row r="112" ht="20" customHeight="1">
       <c r="A112">
-        <f>"System.PZ.A081"</f>
+        <f>"System.PZ.A089"</f>
         <v/>
       </c>
       <c r="B112">
@@ -8584,7 +8584,7 @@
         <v/>
       </c>
       <c r="Q112" s="6">
-        <f>"АОсс. Нет связи с ПЛК AD100  "</f>
+        <f>"АОсс. Самопроизвольное закрытие крана 1  "</f>
         <v/>
       </c>
       <c r="R112" s="7">
@@ -8614,7 +8614,7 @@
     </row>
     <row r="113" ht="20" customHeight="1">
       <c r="A113">
-        <f>"System.PZ.A082"</f>
+        <f>"System.PZ.A090"</f>
         <v/>
       </c>
       <c r="B113">
@@ -8678,7 +8678,7 @@
         <v/>
       </c>
       <c r="Q113" s="6">
-        <f>"АОбс. Отсутствие питание ВВОД3 ИМ ГТУ (=27В)  "</f>
+        <f>"АОсс. Самопроизвольное открытие крана 5  "</f>
         <v/>
       </c>
       <c r="R113" s="7">
@@ -8706,50 +8706,2308 @@
         <v/>
       </c>
     </row>
-    <row r="116" ht="35" customHeight="1">
-      <c r="Q116" s="8">
+    <row r="114" ht="20" customHeight="1">
+      <c r="A114">
+        <f>"System.PZ.A091"</f>
+        <v/>
+      </c>
+      <c r="B114">
+        <f>CONCATENATE($A$2, $A$1, $A114, B$2)</f>
+        <v/>
+      </c>
+      <c r="C114">
+        <f>CONCATENATE($A$2, $A$1, $A114, C$2)</f>
+        <v/>
+      </c>
+      <c r="D114">
+        <f>CONCATENATE($A$2, $A$1, $A114, D$2)</f>
+        <v/>
+      </c>
+      <c r="E114">
+        <f>CONCATENATE($A$2, $A$1, $A114, E$2)</f>
+        <v/>
+      </c>
+      <c r="F114">
+        <f>CONCATENATE($A$2, $A$1, $A114, F$2)</f>
+        <v/>
+      </c>
+      <c r="G114">
+        <f>CONCATENATE($A$2, $A$1, $A114, G$2)</f>
+        <v/>
+      </c>
+      <c r="H114">
+        <f>CONCATENATE($A$2, $A$1, $A114, H$2)</f>
+        <v/>
+      </c>
+      <c r="I114">
+        <f>CONCATENATE($A$2, $A$1, $A114, I$2)</f>
+        <v/>
+      </c>
+      <c r="J114">
+        <f>CONCATENATE($A$2, $A$1, $A114, J$2)</f>
+        <v/>
+      </c>
+      <c r="K114">
+        <f>CurrAttrValue(D114, 0)</f>
+        <v/>
+      </c>
+      <c r="L114">
+        <f>CurrAttrValue(E114, 0)</f>
+        <v/>
+      </c>
+      <c r="M114">
+        <f>CurrAttrValue(H114, 0)</f>
+        <v/>
+      </c>
+      <c r="N114">
+        <f>CurrAttrValue(I114, 0)</f>
+        <v/>
+      </c>
+      <c r="O114">
+        <f>CurrAttrValue(J114, 0)</f>
+        <v/>
+      </c>
+      <c r="P114" s="5">
+        <f>"84"</f>
+        <v/>
+      </c>
+      <c r="Q114" s="6">
+        <f>"АОсс. Пожар в ОД  "</f>
+        <v/>
+      </c>
+      <c r="R114" s="7">
+        <f>IF(N114, S114, "")</f>
+        <v/>
+      </c>
+      <c r="S114" s="7">
+        <f>CurrAttrValue(C114, 0)</f>
+        <v/>
+      </c>
+      <c r="T114" s="5">
+        <f>IF(K114=-200, "д.вх.", K114)</f>
+        <v/>
+      </c>
+      <c r="U114" s="5">
+        <f>IF(L114=-200, "д.вх.", IF(N114, O114, L114))</f>
+        <v/>
+      </c>
+      <c r="V114" s="5">
+        <f>CurrAttrValue(G114, 0)</f>
+        <v/>
+      </c>
+      <c r="W114" s="5">
+        <f>IF(M114, "Блокирована", IF(N114, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" ht="20" customHeight="1">
+      <c r="A115">
+        <f>"System.PZ.A092"</f>
+        <v/>
+      </c>
+      <c r="B115">
+        <f>CONCATENATE($A$2, $A$1, $A115, B$2)</f>
+        <v/>
+      </c>
+      <c r="C115">
+        <f>CONCATENATE($A$2, $A$1, $A115, C$2)</f>
+        <v/>
+      </c>
+      <c r="D115">
+        <f>CONCATENATE($A$2, $A$1, $A115, D$2)</f>
+        <v/>
+      </c>
+      <c r="E115">
+        <f>CONCATENATE($A$2, $A$1, $A115, E$2)</f>
+        <v/>
+      </c>
+      <c r="F115">
+        <f>CONCATENATE($A$2, $A$1, $A115, F$2)</f>
+        <v/>
+      </c>
+      <c r="G115">
+        <f>CONCATENATE($A$2, $A$1, $A115, G$2)</f>
+        <v/>
+      </c>
+      <c r="H115">
+        <f>CONCATENATE($A$2, $A$1, $A115, H$2)</f>
+        <v/>
+      </c>
+      <c r="I115">
+        <f>CONCATENATE($A$2, $A$1, $A115, I$2)</f>
+        <v/>
+      </c>
+      <c r="J115">
+        <f>CONCATENATE($A$2, $A$1, $A115, J$2)</f>
+        <v/>
+      </c>
+      <c r="K115">
+        <f>CurrAttrValue(D115, 0)</f>
+        <v/>
+      </c>
+      <c r="L115">
+        <f>CurrAttrValue(E115, 0)</f>
+        <v/>
+      </c>
+      <c r="M115">
+        <f>CurrAttrValue(H115, 0)</f>
+        <v/>
+      </c>
+      <c r="N115">
+        <f>CurrAttrValue(I115, 0)</f>
+        <v/>
+      </c>
+      <c r="O115">
+        <f>CurrAttrValue(J115, 0)</f>
+        <v/>
+      </c>
+      <c r="P115" s="5">
+        <f>"85"</f>
+        <v/>
+      </c>
+      <c r="Q115" s="6">
+        <f>"АОсс. Пожар в ангаре  "</f>
+        <v/>
+      </c>
+      <c r="R115" s="7">
+        <f>IF(N115, S115, "")</f>
+        <v/>
+      </c>
+      <c r="S115" s="7">
+        <f>CurrAttrValue(C115, 0)</f>
+        <v/>
+      </c>
+      <c r="T115" s="5">
+        <f>IF(K115=-200, "д.вх.", K115)</f>
+        <v/>
+      </c>
+      <c r="U115" s="5">
+        <f>IF(L115=-200, "д.вх.", IF(N115, O115, L115))</f>
+        <v/>
+      </c>
+      <c r="V115" s="5">
+        <f>CurrAttrValue(G115, 0)</f>
+        <v/>
+      </c>
+      <c r="W115" s="5">
+        <f>IF(M115, "Блокирована", IF(N115, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" ht="20" customHeight="1">
+      <c r="A116">
+        <f>"System.PZ.A093"</f>
+        <v/>
+      </c>
+      <c r="B116">
+        <f>CONCATENATE($A$2, $A$1, $A116, B$2)</f>
+        <v/>
+      </c>
+      <c r="C116">
+        <f>CONCATENATE($A$2, $A$1, $A116, C$2)</f>
+        <v/>
+      </c>
+      <c r="D116">
+        <f>CONCATENATE($A$2, $A$1, $A116, D$2)</f>
+        <v/>
+      </c>
+      <c r="E116">
+        <f>CONCATENATE($A$2, $A$1, $A116, E$2)</f>
+        <v/>
+      </c>
+      <c r="F116">
+        <f>CONCATENATE($A$2, $A$1, $A116, F$2)</f>
+        <v/>
+      </c>
+      <c r="G116">
+        <f>CONCATENATE($A$2, $A$1, $A116, G$2)</f>
+        <v/>
+      </c>
+      <c r="H116">
+        <f>CONCATENATE($A$2, $A$1, $A116, H$2)</f>
+        <v/>
+      </c>
+      <c r="I116">
+        <f>CONCATENATE($A$2, $A$1, $A116, I$2)</f>
+        <v/>
+      </c>
+      <c r="J116">
+        <f>CONCATENATE($A$2, $A$1, $A116, J$2)</f>
+        <v/>
+      </c>
+      <c r="K116">
+        <f>CurrAttrValue(D116, 0)</f>
+        <v/>
+      </c>
+      <c r="L116">
+        <f>CurrAttrValue(E116, 0)</f>
+        <v/>
+      </c>
+      <c r="M116">
+        <f>CurrAttrValue(H116, 0)</f>
+        <v/>
+      </c>
+      <c r="N116">
+        <f>CurrAttrValue(I116, 0)</f>
+        <v/>
+      </c>
+      <c r="O116">
+        <f>CurrAttrValue(J116, 0)</f>
+        <v/>
+      </c>
+      <c r="P116" s="5">
+        <f>"86"</f>
+        <v/>
+      </c>
+      <c r="Q116" s="6">
+        <f>"АОсс. Пожар в блоке ЭТ  "</f>
+        <v/>
+      </c>
+      <c r="R116" s="7">
+        <f>IF(N116, S116, "")</f>
+        <v/>
+      </c>
+      <c r="S116" s="7">
+        <f>CurrAttrValue(C116, 0)</f>
+        <v/>
+      </c>
+      <c r="T116" s="5">
+        <f>IF(K116=-200, "д.вх.", K116)</f>
+        <v/>
+      </c>
+      <c r="U116" s="5">
+        <f>IF(L116=-200, "д.вх.", IF(N116, O116, L116))</f>
+        <v/>
+      </c>
+      <c r="V116" s="5">
+        <f>CurrAttrValue(G116, 0)</f>
+        <v/>
+      </c>
+      <c r="W116" s="5">
+        <f>IF(M116, "Блокирована", IF(N116, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" ht="20" customHeight="1">
+      <c r="A117">
+        <f>"System.PZ.A094"</f>
+        <v/>
+      </c>
+      <c r="B117">
+        <f>CONCATENATE($A$2, $A$1, $A117, B$2)</f>
+        <v/>
+      </c>
+      <c r="C117">
+        <f>CONCATENATE($A$2, $A$1, $A117, C$2)</f>
+        <v/>
+      </c>
+      <c r="D117">
+        <f>CONCATENATE($A$2, $A$1, $A117, D$2)</f>
+        <v/>
+      </c>
+      <c r="E117">
+        <f>CONCATENATE($A$2, $A$1, $A117, E$2)</f>
+        <v/>
+      </c>
+      <c r="F117">
+        <f>CONCATENATE($A$2, $A$1, $A117, F$2)</f>
+        <v/>
+      </c>
+      <c r="G117">
+        <f>CONCATENATE($A$2, $A$1, $A117, G$2)</f>
+        <v/>
+      </c>
+      <c r="H117">
+        <f>CONCATENATE($A$2, $A$1, $A117, H$2)</f>
+        <v/>
+      </c>
+      <c r="I117">
+        <f>CONCATENATE($A$2, $A$1, $A117, I$2)</f>
+        <v/>
+      </c>
+      <c r="J117">
+        <f>CONCATENATE($A$2, $A$1, $A117, J$2)</f>
+        <v/>
+      </c>
+      <c r="K117">
+        <f>CurrAttrValue(D117, 0)</f>
+        <v/>
+      </c>
+      <c r="L117">
+        <f>CurrAttrValue(E117, 0)</f>
+        <v/>
+      </c>
+      <c r="M117">
+        <f>CurrAttrValue(H117, 0)</f>
+        <v/>
+      </c>
+      <c r="N117">
+        <f>CurrAttrValue(I117, 0)</f>
+        <v/>
+      </c>
+      <c r="O117">
+        <f>CurrAttrValue(J117, 0)</f>
+        <v/>
+      </c>
+      <c r="P117" s="5">
+        <f>"87"</f>
+        <v/>
+      </c>
+      <c r="Q117" s="6">
+        <f>"АОсс. Пожар в блоке САУ  "</f>
+        <v/>
+      </c>
+      <c r="R117" s="7">
+        <f>IF(N117, S117, "")</f>
+        <v/>
+      </c>
+      <c r="S117" s="7">
+        <f>CurrAttrValue(C117, 0)</f>
+        <v/>
+      </c>
+      <c r="T117" s="5">
+        <f>IF(K117=-200, "д.вх.", K117)</f>
+        <v/>
+      </c>
+      <c r="U117" s="5">
+        <f>IF(L117=-200, "д.вх.", IF(N117, O117, L117))</f>
+        <v/>
+      </c>
+      <c r="V117" s="5">
+        <f>CurrAttrValue(G117, 0)</f>
+        <v/>
+      </c>
+      <c r="W117" s="5">
+        <f>IF(M117, "Блокирована", IF(N117, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" ht="20" customHeight="1">
+      <c r="A118">
+        <f>"System.PZ.A095"</f>
+        <v/>
+      </c>
+      <c r="B118">
+        <f>CONCATENATE($A$2, $A$1, $A118, B$2)</f>
+        <v/>
+      </c>
+      <c r="C118">
+        <f>CONCATENATE($A$2, $A$1, $A118, C$2)</f>
+        <v/>
+      </c>
+      <c r="D118">
+        <f>CONCATENATE($A$2, $A$1, $A118, D$2)</f>
+        <v/>
+      </c>
+      <c r="E118">
+        <f>CONCATENATE($A$2, $A$1, $A118, E$2)</f>
+        <v/>
+      </c>
+      <c r="F118">
+        <f>CONCATENATE($A$2, $A$1, $A118, F$2)</f>
+        <v/>
+      </c>
+      <c r="G118">
+        <f>CONCATENATE($A$2, $A$1, $A118, G$2)</f>
+        <v/>
+      </c>
+      <c r="H118">
+        <f>CONCATENATE($A$2, $A$1, $A118, H$2)</f>
+        <v/>
+      </c>
+      <c r="I118">
+        <f>CONCATENATE($A$2, $A$1, $A118, I$2)</f>
+        <v/>
+      </c>
+      <c r="J118">
+        <f>CONCATENATE($A$2, $A$1, $A118, J$2)</f>
+        <v/>
+      </c>
+      <c r="K118">
+        <f>CurrAttrValue(D118, 0)</f>
+        <v/>
+      </c>
+      <c r="L118">
+        <f>CurrAttrValue(E118, 0)</f>
+        <v/>
+      </c>
+      <c r="M118">
+        <f>CurrAttrValue(H118, 0)</f>
+        <v/>
+      </c>
+      <c r="N118">
+        <f>CurrAttrValue(I118, 0)</f>
+        <v/>
+      </c>
+      <c r="O118">
+        <f>CurrAttrValue(J118, 0)</f>
+        <v/>
+      </c>
+      <c r="P118" s="5">
+        <f>"88"</f>
+        <v/>
+      </c>
+      <c r="Q118" s="6">
+        <f>"АОсс. Пожар в АВГМ  "</f>
+        <v/>
+      </c>
+      <c r="R118" s="7">
+        <f>IF(N118, S118, "")</f>
+        <v/>
+      </c>
+      <c r="S118" s="7">
+        <f>CurrAttrValue(C118, 0)</f>
+        <v/>
+      </c>
+      <c r="T118" s="5">
+        <f>IF(K118=-200, "д.вх.", K118)</f>
+        <v/>
+      </c>
+      <c r="U118" s="5">
+        <f>IF(L118=-200, "д.вх.", IF(N118, O118, L118))</f>
+        <v/>
+      </c>
+      <c r="V118" s="5">
+        <f>CurrAttrValue(G118, 0)</f>
+        <v/>
+      </c>
+      <c r="W118" s="5">
+        <f>IF(M118, "Блокирована", IF(N118, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" ht="20" customHeight="1">
+      <c r="A119">
+        <f>"System.PZ.A096"</f>
+        <v/>
+      </c>
+      <c r="B119">
+        <f>CONCATENATE($A$2, $A$1, $A119, B$2)</f>
+        <v/>
+      </c>
+      <c r="C119">
+        <f>CONCATENATE($A$2, $A$1, $A119, C$2)</f>
+        <v/>
+      </c>
+      <c r="D119">
+        <f>CONCATENATE($A$2, $A$1, $A119, D$2)</f>
+        <v/>
+      </c>
+      <c r="E119">
+        <f>CONCATENATE($A$2, $A$1, $A119, E$2)</f>
+        <v/>
+      </c>
+      <c r="F119">
+        <f>CONCATENATE($A$2, $A$1, $A119, F$2)</f>
+        <v/>
+      </c>
+      <c r="G119">
+        <f>CONCATENATE($A$2, $A$1, $A119, G$2)</f>
+        <v/>
+      </c>
+      <c r="H119">
+        <f>CONCATENATE($A$2, $A$1, $A119, H$2)</f>
+        <v/>
+      </c>
+      <c r="I119">
+        <f>CONCATENATE($A$2, $A$1, $A119, I$2)</f>
+        <v/>
+      </c>
+      <c r="J119">
+        <f>CONCATENATE($A$2, $A$1, $A119, J$2)</f>
+        <v/>
+      </c>
+      <c r="K119">
+        <f>CurrAttrValue(D119, 0)</f>
+        <v/>
+      </c>
+      <c r="L119">
+        <f>CurrAttrValue(E119, 0)</f>
+        <v/>
+      </c>
+      <c r="M119">
+        <f>CurrAttrValue(H119, 0)</f>
+        <v/>
+      </c>
+      <c r="N119">
+        <f>CurrAttrValue(I119, 0)</f>
+        <v/>
+      </c>
+      <c r="O119">
+        <f>CurrAttrValue(J119, 0)</f>
+        <v/>
+      </c>
+      <c r="P119" s="5">
+        <f>"89"</f>
+        <v/>
+      </c>
+      <c r="Q119" s="6">
+        <f>"АОсс. Загазованность 20% НКПВ в ОД  "</f>
+        <v/>
+      </c>
+      <c r="R119" s="7">
+        <f>IF(N119, S119, "")</f>
+        <v/>
+      </c>
+      <c r="S119" s="7">
+        <f>CurrAttrValue(C119, 0)</f>
+        <v/>
+      </c>
+      <c r="T119" s="5">
+        <f>IF(K119=-200, "д.вх.", K119)</f>
+        <v/>
+      </c>
+      <c r="U119" s="5">
+        <f>IF(L119=-200, "д.вх.", IF(N119, O119, L119))</f>
+        <v/>
+      </c>
+      <c r="V119" s="5">
+        <f>CurrAttrValue(G119, 0)</f>
+        <v/>
+      </c>
+      <c r="W119" s="5">
+        <f>IF(M119, "Блокирована", IF(N119, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" ht="20" customHeight="1">
+      <c r="A120">
+        <f>"System.PZ.A097"</f>
+        <v/>
+      </c>
+      <c r="B120">
+        <f>CONCATENATE($A$2, $A$1, $A120, B$2)</f>
+        <v/>
+      </c>
+      <c r="C120">
+        <f>CONCATENATE($A$2, $A$1, $A120, C$2)</f>
+        <v/>
+      </c>
+      <c r="D120">
+        <f>CONCATENATE($A$2, $A$1, $A120, D$2)</f>
+        <v/>
+      </c>
+      <c r="E120">
+        <f>CONCATENATE($A$2, $A$1, $A120, E$2)</f>
+        <v/>
+      </c>
+      <c r="F120">
+        <f>CONCATENATE($A$2, $A$1, $A120, F$2)</f>
+        <v/>
+      </c>
+      <c r="G120">
+        <f>CONCATENATE($A$2, $A$1, $A120, G$2)</f>
+        <v/>
+      </c>
+      <c r="H120">
+        <f>CONCATENATE($A$2, $A$1, $A120, H$2)</f>
+        <v/>
+      </c>
+      <c r="I120">
+        <f>CONCATENATE($A$2, $A$1, $A120, I$2)</f>
+        <v/>
+      </c>
+      <c r="J120">
+        <f>CONCATENATE($A$2, $A$1, $A120, J$2)</f>
+        <v/>
+      </c>
+      <c r="K120">
+        <f>CurrAttrValue(D120, 0)</f>
+        <v/>
+      </c>
+      <c r="L120">
+        <f>CurrAttrValue(E120, 0)</f>
+        <v/>
+      </c>
+      <c r="M120">
+        <f>CurrAttrValue(H120, 0)</f>
+        <v/>
+      </c>
+      <c r="N120">
+        <f>CurrAttrValue(I120, 0)</f>
+        <v/>
+      </c>
+      <c r="O120">
+        <f>CurrAttrValue(J120, 0)</f>
+        <v/>
+      </c>
+      <c r="P120" s="5">
+        <f>"90"</f>
+        <v/>
+      </c>
+      <c r="Q120" s="6">
+        <f>"АОсс. Загазованность 20% НКПВ в ангаре  "</f>
+        <v/>
+      </c>
+      <c r="R120" s="7">
+        <f>IF(N120, S120, "")</f>
+        <v/>
+      </c>
+      <c r="S120" s="7">
+        <f>CurrAttrValue(C120, 0)</f>
+        <v/>
+      </c>
+      <c r="T120" s="5">
+        <f>IF(K120=-200, "д.вх.", K120)</f>
+        <v/>
+      </c>
+      <c r="U120" s="5">
+        <f>IF(L120=-200, "д.вх.", IF(N120, O120, L120))</f>
+        <v/>
+      </c>
+      <c r="V120" s="5">
+        <f>CurrAttrValue(G120, 0)</f>
+        <v/>
+      </c>
+      <c r="W120" s="5">
+        <f>IF(M120, "Блокирована", IF(N120, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" ht="20" customHeight="1">
+      <c r="A121">
+        <f>"System.PZ.A098"</f>
+        <v/>
+      </c>
+      <c r="B121">
+        <f>CONCATENATE($A$2, $A$1, $A121, B$2)</f>
+        <v/>
+      </c>
+      <c r="C121">
+        <f>CONCATENATE($A$2, $A$1, $A121, C$2)</f>
+        <v/>
+      </c>
+      <c r="D121">
+        <f>CONCATENATE($A$2, $A$1, $A121, D$2)</f>
+        <v/>
+      </c>
+      <c r="E121">
+        <f>CONCATENATE($A$2, $A$1, $A121, E$2)</f>
+        <v/>
+      </c>
+      <c r="F121">
+        <f>CONCATENATE($A$2, $A$1, $A121, F$2)</f>
+        <v/>
+      </c>
+      <c r="G121">
+        <f>CONCATENATE($A$2, $A$1, $A121, G$2)</f>
+        <v/>
+      </c>
+      <c r="H121">
+        <f>CONCATENATE($A$2, $A$1, $A121, H$2)</f>
+        <v/>
+      </c>
+      <c r="I121">
+        <f>CONCATENATE($A$2, $A$1, $A121, I$2)</f>
+        <v/>
+      </c>
+      <c r="J121">
+        <f>CONCATENATE($A$2, $A$1, $A121, J$2)</f>
+        <v/>
+      </c>
+      <c r="K121">
+        <f>CurrAttrValue(D121, 0)</f>
+        <v/>
+      </c>
+      <c r="L121">
+        <f>CurrAttrValue(E121, 0)</f>
+        <v/>
+      </c>
+      <c r="M121">
+        <f>CurrAttrValue(H121, 0)</f>
+        <v/>
+      </c>
+      <c r="N121">
+        <f>CurrAttrValue(I121, 0)</f>
+        <v/>
+      </c>
+      <c r="O121">
+        <f>CurrAttrValue(J121, 0)</f>
+        <v/>
+      </c>
+      <c r="P121" s="5">
+        <f>"91"</f>
+        <v/>
+      </c>
+      <c r="Q121" s="6">
+        <f>"АОсс. Загазованность 20% НКПВ в АВГМ  "</f>
+        <v/>
+      </c>
+      <c r="R121" s="7">
+        <f>IF(N121, S121, "")</f>
+        <v/>
+      </c>
+      <c r="S121" s="7">
+        <f>CurrAttrValue(C121, 0)</f>
+        <v/>
+      </c>
+      <c r="T121" s="5">
+        <f>IF(K121=-200, "д.вх.", K121)</f>
+        <v/>
+      </c>
+      <c r="U121" s="5">
+        <f>IF(L121=-200, "д.вх.", IF(N121, O121, L121))</f>
+        <v/>
+      </c>
+      <c r="V121" s="5">
+        <f>CurrAttrValue(G121, 0)</f>
+        <v/>
+      </c>
+      <c r="W121" s="5">
+        <f>IF(M121, "Блокирована", IF(N121, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" ht="20" customHeight="1">
+      <c r="A122">
+        <f>"System.PZ.A099"</f>
+        <v/>
+      </c>
+      <c r="B122">
+        <f>CONCATENATE($A$2, $A$1, $A122, B$2)</f>
+        <v/>
+      </c>
+      <c r="C122">
+        <f>CONCATENATE($A$2, $A$1, $A122, C$2)</f>
+        <v/>
+      </c>
+      <c r="D122">
+        <f>CONCATENATE($A$2, $A$1, $A122, D$2)</f>
+        <v/>
+      </c>
+      <c r="E122">
+        <f>CONCATENATE($A$2, $A$1, $A122, E$2)</f>
+        <v/>
+      </c>
+      <c r="F122">
+        <f>CONCATENATE($A$2, $A$1, $A122, F$2)</f>
+        <v/>
+      </c>
+      <c r="G122">
+        <f>CONCATENATE($A$2, $A$1, $A122, G$2)</f>
+        <v/>
+      </c>
+      <c r="H122">
+        <f>CONCATENATE($A$2, $A$1, $A122, H$2)</f>
+        <v/>
+      </c>
+      <c r="I122">
+        <f>CONCATENATE($A$2, $A$1, $A122, I$2)</f>
+        <v/>
+      </c>
+      <c r="J122">
+        <f>CONCATENATE($A$2, $A$1, $A122, J$2)</f>
+        <v/>
+      </c>
+      <c r="K122">
+        <f>CurrAttrValue(D122, 0)</f>
+        <v/>
+      </c>
+      <c r="L122">
+        <f>CurrAttrValue(E122, 0)</f>
+        <v/>
+      </c>
+      <c r="M122">
+        <f>CurrAttrValue(H122, 0)</f>
+        <v/>
+      </c>
+      <c r="N122">
+        <f>CurrAttrValue(I122, 0)</f>
+        <v/>
+      </c>
+      <c r="O122">
+        <f>CurrAttrValue(J122, 0)</f>
+        <v/>
+      </c>
+      <c r="P122" s="5">
+        <f>"92"</f>
+        <v/>
+      </c>
+      <c r="Q122" s="6">
+        <f>"АОсс. АОсс по команде оператора с АРМ  "</f>
+        <v/>
+      </c>
+      <c r="R122" s="7">
+        <f>IF(N122, S122, "")</f>
+        <v/>
+      </c>
+      <c r="S122" s="7">
+        <f>CurrAttrValue(C122, 0)</f>
+        <v/>
+      </c>
+      <c r="T122" s="5">
+        <f>IF(K122=-200, "д.вх.", K122)</f>
+        <v/>
+      </c>
+      <c r="U122" s="5">
+        <f>IF(L122=-200, "д.вх.", IF(N122, O122, L122))</f>
+        <v/>
+      </c>
+      <c r="V122" s="5">
+        <f>CurrAttrValue(G122, 0)</f>
+        <v/>
+      </c>
+      <c r="W122" s="5">
+        <f>IF(M122, "Блокирована", IF(N122, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" ht="20" customHeight="1">
+      <c r="A123">
+        <f>"System.PZ.A100"</f>
+        <v/>
+      </c>
+      <c r="B123">
+        <f>CONCATENATE($A$2, $A$1, $A123, B$2)</f>
+        <v/>
+      </c>
+      <c r="C123">
+        <f>CONCATENATE($A$2, $A$1, $A123, C$2)</f>
+        <v/>
+      </c>
+      <c r="D123">
+        <f>CONCATENATE($A$2, $A$1, $A123, D$2)</f>
+        <v/>
+      </c>
+      <c r="E123">
+        <f>CONCATENATE($A$2, $A$1, $A123, E$2)</f>
+        <v/>
+      </c>
+      <c r="F123">
+        <f>CONCATENATE($A$2, $A$1, $A123, F$2)</f>
+        <v/>
+      </c>
+      <c r="G123">
+        <f>CONCATENATE($A$2, $A$1, $A123, G$2)</f>
+        <v/>
+      </c>
+      <c r="H123">
+        <f>CONCATENATE($A$2, $A$1, $A123, H$2)</f>
+        <v/>
+      </c>
+      <c r="I123">
+        <f>CONCATENATE($A$2, $A$1, $A123, I$2)</f>
+        <v/>
+      </c>
+      <c r="J123">
+        <f>CONCATENATE($A$2, $A$1, $A123, J$2)</f>
+        <v/>
+      </c>
+      <c r="K123">
+        <f>CurrAttrValue(D123, 0)</f>
+        <v/>
+      </c>
+      <c r="L123">
+        <f>CurrAttrValue(E123, 0)</f>
+        <v/>
+      </c>
+      <c r="M123">
+        <f>CurrAttrValue(H123, 0)</f>
+        <v/>
+      </c>
+      <c r="N123">
+        <f>CurrAttrValue(I123, 0)</f>
+        <v/>
+      </c>
+      <c r="O123">
+        <f>CurrAttrValue(J123, 0)</f>
+        <v/>
+      </c>
+      <c r="P123" s="5">
+        <f>"93"</f>
+        <v/>
+      </c>
+      <c r="Q123" s="6">
+        <f>"АОбс. АОбс по команде оператора с АРМ  "</f>
+        <v/>
+      </c>
+      <c r="R123" s="7">
+        <f>IF(N123, S123, "")</f>
+        <v/>
+      </c>
+      <c r="S123" s="7">
+        <f>CurrAttrValue(C123, 0)</f>
+        <v/>
+      </c>
+      <c r="T123" s="5">
+        <f>IF(K123=-200, "д.вх.", K123)</f>
+        <v/>
+      </c>
+      <c r="U123" s="5">
+        <f>IF(L123=-200, "д.вх.", IF(N123, O123, L123))</f>
+        <v/>
+      </c>
+      <c r="V123" s="5">
+        <f>CurrAttrValue(G123, 0)</f>
+        <v/>
+      </c>
+      <c r="W123" s="5">
+        <f>IF(M123, "Блокирована", IF(N123, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" ht="20" customHeight="1">
+      <c r="A124">
+        <f>"System.PZ.A101"</f>
+        <v/>
+      </c>
+      <c r="B124">
+        <f>CONCATENATE($A$2, $A$1, $A124, B$2)</f>
+        <v/>
+      </c>
+      <c r="C124">
+        <f>CONCATENATE($A$2, $A$1, $A124, C$2)</f>
+        <v/>
+      </c>
+      <c r="D124">
+        <f>CONCATENATE($A$2, $A$1, $A124, D$2)</f>
+        <v/>
+      </c>
+      <c r="E124">
+        <f>CONCATENATE($A$2, $A$1, $A124, E$2)</f>
+        <v/>
+      </c>
+      <c r="F124">
+        <f>CONCATENATE($A$2, $A$1, $A124, F$2)</f>
+        <v/>
+      </c>
+      <c r="G124">
+        <f>CONCATENATE($A$2, $A$1, $A124, G$2)</f>
+        <v/>
+      </c>
+      <c r="H124">
+        <f>CONCATENATE($A$2, $A$1, $A124, H$2)</f>
+        <v/>
+      </c>
+      <c r="I124">
+        <f>CONCATENATE($A$2, $A$1, $A124, I$2)</f>
+        <v/>
+      </c>
+      <c r="J124">
+        <f>CONCATENATE($A$2, $A$1, $A124, J$2)</f>
+        <v/>
+      </c>
+      <c r="K124">
+        <f>CurrAttrValue(D124, 0)</f>
+        <v/>
+      </c>
+      <c r="L124">
+        <f>CurrAttrValue(E124, 0)</f>
+        <v/>
+      </c>
+      <c r="M124">
+        <f>CurrAttrValue(H124, 0)</f>
+        <v/>
+      </c>
+      <c r="N124">
+        <f>CurrAttrValue(I124, 0)</f>
+        <v/>
+      </c>
+      <c r="O124">
+        <f>CurrAttrValue(J124, 0)</f>
+        <v/>
+      </c>
+      <c r="P124" s="5">
+        <f>"94"</f>
+        <v/>
+      </c>
+      <c r="Q124" s="6">
+        <f>"АОсс. АОсс по команде оператора с ПРУ  "</f>
+        <v/>
+      </c>
+      <c r="R124" s="7">
+        <f>IF(N124, S124, "")</f>
+        <v/>
+      </c>
+      <c r="S124" s="7">
+        <f>CurrAttrValue(C124, 0)</f>
+        <v/>
+      </c>
+      <c r="T124" s="5">
+        <f>IF(K124=-200, "д.вх.", K124)</f>
+        <v/>
+      </c>
+      <c r="U124" s="5">
+        <f>IF(L124=-200, "д.вх.", IF(N124, O124, L124))</f>
+        <v/>
+      </c>
+      <c r="V124" s="5">
+        <f>CurrAttrValue(G124, 0)</f>
+        <v/>
+      </c>
+      <c r="W124" s="5">
+        <f>IF(M124, "Блокирована", IF(N124, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" ht="20" customHeight="1">
+      <c r="A125">
+        <f>"System.PZ.A102"</f>
+        <v/>
+      </c>
+      <c r="B125">
+        <f>CONCATENATE($A$2, $A$1, $A125, B$2)</f>
+        <v/>
+      </c>
+      <c r="C125">
+        <f>CONCATENATE($A$2, $A$1, $A125, C$2)</f>
+        <v/>
+      </c>
+      <c r="D125">
+        <f>CONCATENATE($A$2, $A$1, $A125, D$2)</f>
+        <v/>
+      </c>
+      <c r="E125">
+        <f>CONCATENATE($A$2, $A$1, $A125, E$2)</f>
+        <v/>
+      </c>
+      <c r="F125">
+        <f>CONCATENATE($A$2, $A$1, $A125, F$2)</f>
+        <v/>
+      </c>
+      <c r="G125">
+        <f>CONCATENATE($A$2, $A$1, $A125, G$2)</f>
+        <v/>
+      </c>
+      <c r="H125">
+        <f>CONCATENATE($A$2, $A$1, $A125, H$2)</f>
+        <v/>
+      </c>
+      <c r="I125">
+        <f>CONCATENATE($A$2, $A$1, $A125, I$2)</f>
+        <v/>
+      </c>
+      <c r="J125">
+        <f>CONCATENATE($A$2, $A$1, $A125, J$2)</f>
+        <v/>
+      </c>
+      <c r="K125">
+        <f>CurrAttrValue(D125, 0)</f>
+        <v/>
+      </c>
+      <c r="L125">
+        <f>CurrAttrValue(E125, 0)</f>
+        <v/>
+      </c>
+      <c r="M125">
+        <f>CurrAttrValue(H125, 0)</f>
+        <v/>
+      </c>
+      <c r="N125">
+        <f>CurrAttrValue(I125, 0)</f>
+        <v/>
+      </c>
+      <c r="O125">
+        <f>CurrAttrValue(J125, 0)</f>
+        <v/>
+      </c>
+      <c r="P125" s="5">
+        <f>"95"</f>
+        <v/>
+      </c>
+      <c r="Q125" s="6">
+        <f>"АОбс. АОбс по команде оператора с ПРУ  "</f>
+        <v/>
+      </c>
+      <c r="R125" s="7">
+        <f>IF(N125, S125, "")</f>
+        <v/>
+      </c>
+      <c r="S125" s="7">
+        <f>CurrAttrValue(C125, 0)</f>
+        <v/>
+      </c>
+      <c r="T125" s="5">
+        <f>IF(K125=-200, "д.вх.", K125)</f>
+        <v/>
+      </c>
+      <c r="U125" s="5">
+        <f>IF(L125=-200, "д.вх.", IF(N125, O125, L125))</f>
+        <v/>
+      </c>
+      <c r="V125" s="5">
+        <f>CurrAttrValue(G125, 0)</f>
+        <v/>
+      </c>
+      <c r="W125" s="5">
+        <f>IF(M125, "Блокирована", IF(N125, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" ht="20" customHeight="1">
+      <c r="A126">
+        <f>"System.PZ.A103"</f>
+        <v/>
+      </c>
+      <c r="B126">
+        <f>CONCATENATE($A$2, $A$1, $A126, B$2)</f>
+        <v/>
+      </c>
+      <c r="C126">
+        <f>CONCATENATE($A$2, $A$1, $A126, C$2)</f>
+        <v/>
+      </c>
+      <c r="D126">
+        <f>CONCATENATE($A$2, $A$1, $A126, D$2)</f>
+        <v/>
+      </c>
+      <c r="E126">
+        <f>CONCATENATE($A$2, $A$1, $A126, E$2)</f>
+        <v/>
+      </c>
+      <c r="F126">
+        <f>CONCATENATE($A$2, $A$1, $A126, F$2)</f>
+        <v/>
+      </c>
+      <c r="G126">
+        <f>CONCATENATE($A$2, $A$1, $A126, G$2)</f>
+        <v/>
+      </c>
+      <c r="H126">
+        <f>CONCATENATE($A$2, $A$1, $A126, H$2)</f>
+        <v/>
+      </c>
+      <c r="I126">
+        <f>CONCATENATE($A$2, $A$1, $A126, I$2)</f>
+        <v/>
+      </c>
+      <c r="J126">
+        <f>CONCATENATE($A$2, $A$1, $A126, J$2)</f>
+        <v/>
+      </c>
+      <c r="K126">
+        <f>CurrAttrValue(D126, 0)</f>
+        <v/>
+      </c>
+      <c r="L126">
+        <f>CurrAttrValue(E126, 0)</f>
+        <v/>
+      </c>
+      <c r="M126">
+        <f>CurrAttrValue(H126, 0)</f>
+        <v/>
+      </c>
+      <c r="N126">
+        <f>CurrAttrValue(I126, 0)</f>
+        <v/>
+      </c>
+      <c r="O126">
+        <f>CurrAttrValue(J126, 0)</f>
+        <v/>
+      </c>
+      <c r="P126" s="5">
+        <f>"96"</f>
+        <v/>
+      </c>
+      <c r="Q126" s="6">
+        <f>"АОсс. АО от кнопки на ПРУ  "</f>
+        <v/>
+      </c>
+      <c r="R126" s="7">
+        <f>IF(N126, S126, "")</f>
+        <v/>
+      </c>
+      <c r="S126" s="7">
+        <f>CurrAttrValue(C126, 0)</f>
+        <v/>
+      </c>
+      <c r="T126" s="5">
+        <f>IF(K126=-200, "д.вх.", K126)</f>
+        <v/>
+      </c>
+      <c r="U126" s="5">
+        <f>IF(L126=-200, "д.вх.", IF(N126, O126, L126))</f>
+        <v/>
+      </c>
+      <c r="V126" s="5">
+        <f>CurrAttrValue(G126, 0)</f>
+        <v/>
+      </c>
+      <c r="W126" s="5">
+        <f>IF(M126, "Блокирована", IF(N126, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" ht="20" customHeight="1">
+      <c r="A127">
+        <f>"System.PZ.A104"</f>
+        <v/>
+      </c>
+      <c r="B127">
+        <f>CONCATENATE($A$2, $A$1, $A127, B$2)</f>
+        <v/>
+      </c>
+      <c r="C127">
+        <f>CONCATENATE($A$2, $A$1, $A127, C$2)</f>
+        <v/>
+      </c>
+      <c r="D127">
+        <f>CONCATENATE($A$2, $A$1, $A127, D$2)</f>
+        <v/>
+      </c>
+      <c r="E127">
+        <f>CONCATENATE($A$2, $A$1, $A127, E$2)</f>
+        <v/>
+      </c>
+      <c r="F127">
+        <f>CONCATENATE($A$2, $A$1, $A127, F$2)</f>
+        <v/>
+      </c>
+      <c r="G127">
+        <f>CONCATENATE($A$2, $A$1, $A127, G$2)</f>
+        <v/>
+      </c>
+      <c r="H127">
+        <f>CONCATENATE($A$2, $A$1, $A127, H$2)</f>
+        <v/>
+      </c>
+      <c r="I127">
+        <f>CONCATENATE($A$2, $A$1, $A127, I$2)</f>
+        <v/>
+      </c>
+      <c r="J127">
+        <f>CONCATENATE($A$2, $A$1, $A127, J$2)</f>
+        <v/>
+      </c>
+      <c r="K127">
+        <f>CurrAttrValue(D127, 0)</f>
+        <v/>
+      </c>
+      <c r="L127">
+        <f>CurrAttrValue(E127, 0)</f>
+        <v/>
+      </c>
+      <c r="M127">
+        <f>CurrAttrValue(H127, 0)</f>
+        <v/>
+      </c>
+      <c r="N127">
+        <f>CurrAttrValue(I127, 0)</f>
+        <v/>
+      </c>
+      <c r="O127">
+        <f>CurrAttrValue(J127, 0)</f>
+        <v/>
+      </c>
+      <c r="P127" s="5">
+        <f>"97"</f>
+        <v/>
+      </c>
+      <c r="Q127" s="6">
+        <f>"АОсс. ЭО от кнопки на ПРУ (Запуск БЭО)  "</f>
+        <v/>
+      </c>
+      <c r="R127" s="7">
+        <f>IF(N127, S127, "")</f>
+        <v/>
+      </c>
+      <c r="S127" s="7">
+        <f>CurrAttrValue(C127, 0)</f>
+        <v/>
+      </c>
+      <c r="T127" s="5">
+        <f>IF(K127=-200, "д.вх.", K127)</f>
+        <v/>
+      </c>
+      <c r="U127" s="5">
+        <f>IF(L127=-200, "д.вх.", IF(N127, O127, L127))</f>
+        <v/>
+      </c>
+      <c r="V127" s="5">
+        <f>CurrAttrValue(G127, 0)</f>
+        <v/>
+      </c>
+      <c r="W127" s="5">
+        <f>IF(M127, "Блокирована", IF(N127, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" ht="20" customHeight="1">
+      <c r="A128">
+        <f>"System.PZ.A105"</f>
+        <v/>
+      </c>
+      <c r="B128">
+        <f>CONCATENATE($A$2, $A$1, $A128, B$2)</f>
+        <v/>
+      </c>
+      <c r="C128">
+        <f>CONCATENATE($A$2, $A$1, $A128, C$2)</f>
+        <v/>
+      </c>
+      <c r="D128">
+        <f>CONCATENATE($A$2, $A$1, $A128, D$2)</f>
+        <v/>
+      </c>
+      <c r="E128">
+        <f>CONCATENATE($A$2, $A$1, $A128, E$2)</f>
+        <v/>
+      </c>
+      <c r="F128">
+        <f>CONCATENATE($A$2, $A$1, $A128, F$2)</f>
+        <v/>
+      </c>
+      <c r="G128">
+        <f>CONCATENATE($A$2, $A$1, $A128, G$2)</f>
+        <v/>
+      </c>
+      <c r="H128">
+        <f>CONCATENATE($A$2, $A$1, $A128, H$2)</f>
+        <v/>
+      </c>
+      <c r="I128">
+        <f>CONCATENATE($A$2, $A$1, $A128, I$2)</f>
+        <v/>
+      </c>
+      <c r="J128">
+        <f>CONCATENATE($A$2, $A$1, $A128, J$2)</f>
+        <v/>
+      </c>
+      <c r="K128">
+        <f>CurrAttrValue(D128, 0)</f>
+        <v/>
+      </c>
+      <c r="L128">
+        <f>CurrAttrValue(E128, 0)</f>
+        <v/>
+      </c>
+      <c r="M128">
+        <f>CurrAttrValue(H128, 0)</f>
+        <v/>
+      </c>
+      <c r="N128">
+        <f>CurrAttrValue(I128, 0)</f>
+        <v/>
+      </c>
+      <c r="O128">
+        <f>CurrAttrValue(J128, 0)</f>
+        <v/>
+      </c>
+      <c r="P128" s="5">
+        <f>"98"</f>
+        <v/>
+      </c>
+      <c r="Q128" s="6">
+        <f>"АОсс. АО от кнопки ""АО"" в блоке САУ  "</f>
+        <v/>
+      </c>
+      <c r="R128" s="7">
+        <f>IF(N128, S128, "")</f>
+        <v/>
+      </c>
+      <c r="S128" s="7">
+        <f>CurrAttrValue(C128, 0)</f>
+        <v/>
+      </c>
+      <c r="T128" s="5">
+        <f>IF(K128=-200, "д.вх.", K128)</f>
+        <v/>
+      </c>
+      <c r="U128" s="5">
+        <f>IF(L128=-200, "д.вх.", IF(N128, O128, L128))</f>
+        <v/>
+      </c>
+      <c r="V128" s="5">
+        <f>CurrAttrValue(G128, 0)</f>
+        <v/>
+      </c>
+      <c r="W128" s="5">
+        <f>IF(M128, "Блокирована", IF(N128, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" ht="20" customHeight="1">
+      <c r="A129">
+        <f>"System.PZ.A106"</f>
+        <v/>
+      </c>
+      <c r="B129">
+        <f>CONCATENATE($A$2, $A$1, $A129, B$2)</f>
+        <v/>
+      </c>
+      <c r="C129">
+        <f>CONCATENATE($A$2, $A$1, $A129, C$2)</f>
+        <v/>
+      </c>
+      <c r="D129">
+        <f>CONCATENATE($A$2, $A$1, $A129, D$2)</f>
+        <v/>
+      </c>
+      <c r="E129">
+        <f>CONCATENATE($A$2, $A$1, $A129, E$2)</f>
+        <v/>
+      </c>
+      <c r="F129">
+        <f>CONCATENATE($A$2, $A$1, $A129, F$2)</f>
+        <v/>
+      </c>
+      <c r="G129">
+        <f>CONCATENATE($A$2, $A$1, $A129, G$2)</f>
+        <v/>
+      </c>
+      <c r="H129">
+        <f>CONCATENATE($A$2, $A$1, $A129, H$2)</f>
+        <v/>
+      </c>
+      <c r="I129">
+        <f>CONCATENATE($A$2, $A$1, $A129, I$2)</f>
+        <v/>
+      </c>
+      <c r="J129">
+        <f>CONCATENATE($A$2, $A$1, $A129, J$2)</f>
+        <v/>
+      </c>
+      <c r="K129">
+        <f>CurrAttrValue(D129, 0)</f>
+        <v/>
+      </c>
+      <c r="L129">
+        <f>CurrAttrValue(E129, 0)</f>
+        <v/>
+      </c>
+      <c r="M129">
+        <f>CurrAttrValue(H129, 0)</f>
+        <v/>
+      </c>
+      <c r="N129">
+        <f>CurrAttrValue(I129, 0)</f>
+        <v/>
+      </c>
+      <c r="O129">
+        <f>CurrAttrValue(J129, 0)</f>
+        <v/>
+      </c>
+      <c r="P129" s="5">
+        <f>"99"</f>
+        <v/>
+      </c>
+      <c r="Q129" s="6">
+        <f>"АОсс. АО от кнопки ""АО"" на ГПА  "</f>
+        <v/>
+      </c>
+      <c r="R129" s="7">
+        <f>IF(N129, S129, "")</f>
+        <v/>
+      </c>
+      <c r="S129" s="7">
+        <f>CurrAttrValue(C129, 0)</f>
+        <v/>
+      </c>
+      <c r="T129" s="5">
+        <f>IF(K129=-200, "д.вх.", K129)</f>
+        <v/>
+      </c>
+      <c r="U129" s="5">
+        <f>IF(L129=-200, "д.вх.", IF(N129, O129, L129))</f>
+        <v/>
+      </c>
+      <c r="V129" s="5">
+        <f>CurrAttrValue(G129, 0)</f>
+        <v/>
+      </c>
+      <c r="W129" s="5">
+        <f>IF(M129, "Блокирована", IF(N129, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" ht="20" customHeight="1">
+      <c r="A130">
+        <f>"System.PZ.A107"</f>
+        <v/>
+      </c>
+      <c r="B130">
+        <f>CONCATENATE($A$2, $A$1, $A130, B$2)</f>
+        <v/>
+      </c>
+      <c r="C130">
+        <f>CONCATENATE($A$2, $A$1, $A130, C$2)</f>
+        <v/>
+      </c>
+      <c r="D130">
+        <f>CONCATENATE($A$2, $A$1, $A130, D$2)</f>
+        <v/>
+      </c>
+      <c r="E130">
+        <f>CONCATENATE($A$2, $A$1, $A130, E$2)</f>
+        <v/>
+      </c>
+      <c r="F130">
+        <f>CONCATENATE($A$2, $A$1, $A130, F$2)</f>
+        <v/>
+      </c>
+      <c r="G130">
+        <f>CONCATENATE($A$2, $A$1, $A130, G$2)</f>
+        <v/>
+      </c>
+      <c r="H130">
+        <f>CONCATENATE($A$2, $A$1, $A130, H$2)</f>
+        <v/>
+      </c>
+      <c r="I130">
+        <f>CONCATENATE($A$2, $A$1, $A130, I$2)</f>
+        <v/>
+      </c>
+      <c r="J130">
+        <f>CONCATENATE($A$2, $A$1, $A130, J$2)</f>
+        <v/>
+      </c>
+      <c r="K130">
+        <f>CurrAttrValue(D130, 0)</f>
+        <v/>
+      </c>
+      <c r="L130">
+        <f>CurrAttrValue(E130, 0)</f>
+        <v/>
+      </c>
+      <c r="M130">
+        <f>CurrAttrValue(H130, 0)</f>
+        <v/>
+      </c>
+      <c r="N130">
+        <f>CurrAttrValue(I130, 0)</f>
+        <v/>
+      </c>
+      <c r="O130">
+        <f>CurrAttrValue(J130, 0)</f>
+        <v/>
+      </c>
+      <c r="P130" s="5">
+        <f>"100"</f>
+        <v/>
+      </c>
+      <c r="Q130" s="6">
+        <f>"АОбс. АОбс от САУ КЦ  "</f>
+        <v/>
+      </c>
+      <c r="R130" s="7">
+        <f>IF(N130, S130, "")</f>
+        <v/>
+      </c>
+      <c r="S130" s="7">
+        <f>CurrAttrValue(C130, 0)</f>
+        <v/>
+      </c>
+      <c r="T130" s="5">
+        <f>IF(K130=-200, "д.вх.", K130)</f>
+        <v/>
+      </c>
+      <c r="U130" s="5">
+        <f>IF(L130=-200, "д.вх.", IF(N130, O130, L130))</f>
+        <v/>
+      </c>
+      <c r="V130" s="5">
+        <f>CurrAttrValue(G130, 0)</f>
+        <v/>
+      </c>
+      <c r="W130" s="5">
+        <f>IF(M130, "Блокирована", IF(N130, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" ht="20" customHeight="1">
+      <c r="A131">
+        <f>"System.PZ.A108"</f>
+        <v/>
+      </c>
+      <c r="B131">
+        <f>CONCATENATE($A$2, $A$1, $A131, B$2)</f>
+        <v/>
+      </c>
+      <c r="C131">
+        <f>CONCATENATE($A$2, $A$1, $A131, C$2)</f>
+        <v/>
+      </c>
+      <c r="D131">
+        <f>CONCATENATE($A$2, $A$1, $A131, D$2)</f>
+        <v/>
+      </c>
+      <c r="E131">
+        <f>CONCATENATE($A$2, $A$1, $A131, E$2)</f>
+        <v/>
+      </c>
+      <c r="F131">
+        <f>CONCATENATE($A$2, $A$1, $A131, F$2)</f>
+        <v/>
+      </c>
+      <c r="G131">
+        <f>CONCATENATE($A$2, $A$1, $A131, G$2)</f>
+        <v/>
+      </c>
+      <c r="H131">
+        <f>CONCATENATE($A$2, $A$1, $A131, H$2)</f>
+        <v/>
+      </c>
+      <c r="I131">
+        <f>CONCATENATE($A$2, $A$1, $A131, I$2)</f>
+        <v/>
+      </c>
+      <c r="J131">
+        <f>CONCATENATE($A$2, $A$1, $A131, J$2)</f>
+        <v/>
+      </c>
+      <c r="K131">
+        <f>CurrAttrValue(D131, 0)</f>
+        <v/>
+      </c>
+      <c r="L131">
+        <f>CurrAttrValue(E131, 0)</f>
+        <v/>
+      </c>
+      <c r="M131">
+        <f>CurrAttrValue(H131, 0)</f>
+        <v/>
+      </c>
+      <c r="N131">
+        <f>CurrAttrValue(I131, 0)</f>
+        <v/>
+      </c>
+      <c r="O131">
+        <f>CurrAttrValue(J131, 0)</f>
+        <v/>
+      </c>
+      <c r="P131" s="5">
+        <f>"101"</f>
+        <v/>
+      </c>
+      <c r="Q131" s="6">
+        <f>"АОсс. АОсс от САУ КЦ  "</f>
+        <v/>
+      </c>
+      <c r="R131" s="7">
+        <f>IF(N131, S131, "")</f>
+        <v/>
+      </c>
+      <c r="S131" s="7">
+        <f>CurrAttrValue(C131, 0)</f>
+        <v/>
+      </c>
+      <c r="T131" s="5">
+        <f>IF(K131=-200, "д.вх.", K131)</f>
+        <v/>
+      </c>
+      <c r="U131" s="5">
+        <f>IF(L131=-200, "д.вх.", IF(N131, O131, L131))</f>
+        <v/>
+      </c>
+      <c r="V131" s="5">
+        <f>CurrAttrValue(G131, 0)</f>
+        <v/>
+      </c>
+      <c r="W131" s="5">
+        <f>IF(M131, "Блокирована", IF(N131, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" ht="20" customHeight="1">
+      <c r="A132">
+        <f>"System.PZ.A109"</f>
+        <v/>
+      </c>
+      <c r="B132">
+        <f>CONCATENATE($A$2, $A$1, $A132, B$2)</f>
+        <v/>
+      </c>
+      <c r="C132">
+        <f>CONCATENATE($A$2, $A$1, $A132, C$2)</f>
+        <v/>
+      </c>
+      <c r="D132">
+        <f>CONCATENATE($A$2, $A$1, $A132, D$2)</f>
+        <v/>
+      </c>
+      <c r="E132">
+        <f>CONCATENATE($A$2, $A$1, $A132, E$2)</f>
+        <v/>
+      </c>
+      <c r="F132">
+        <f>CONCATENATE($A$2, $A$1, $A132, F$2)</f>
+        <v/>
+      </c>
+      <c r="G132">
+        <f>CONCATENATE($A$2, $A$1, $A132, G$2)</f>
+        <v/>
+      </c>
+      <c r="H132">
+        <f>CONCATENATE($A$2, $A$1, $A132, H$2)</f>
+        <v/>
+      </c>
+      <c r="I132">
+        <f>CONCATENATE($A$2, $A$1, $A132, I$2)</f>
+        <v/>
+      </c>
+      <c r="J132">
+        <f>CONCATENATE($A$2, $A$1, $A132, J$2)</f>
+        <v/>
+      </c>
+      <c r="K132">
+        <f>CurrAttrValue(D132, 0)</f>
+        <v/>
+      </c>
+      <c r="L132">
+        <f>CurrAttrValue(E132, 0)</f>
+        <v/>
+      </c>
+      <c r="M132">
+        <f>CurrAttrValue(H132, 0)</f>
+        <v/>
+      </c>
+      <c r="N132">
+        <f>CurrAttrValue(I132, 0)</f>
+        <v/>
+      </c>
+      <c r="O132">
+        <f>CurrAttrValue(J132, 0)</f>
+        <v/>
+      </c>
+      <c r="P132" s="5">
+        <f>"102"</f>
+        <v/>
+      </c>
+      <c r="Q132" s="6">
+        <f>"АОсс. СТ2 сработал (Запуск БЭО)  "</f>
+        <v/>
+      </c>
+      <c r="R132" s="7">
+        <f>IF(N132, S132, "")</f>
+        <v/>
+      </c>
+      <c r="S132" s="7">
+        <f>CurrAttrValue(C132, 0)</f>
+        <v/>
+      </c>
+      <c r="T132" s="5">
+        <f>IF(K132=-200, "д.вх.", K132)</f>
+        <v/>
+      </c>
+      <c r="U132" s="5">
+        <f>IF(L132=-200, "д.вх.", IF(N132, O132, L132))</f>
+        <v/>
+      </c>
+      <c r="V132" s="5">
+        <f>CurrAttrValue(G132, 0)</f>
+        <v/>
+      </c>
+      <c r="W132" s="5">
+        <f>IF(M132, "Блокирована", IF(N132, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" ht="20" customHeight="1">
+      <c r="A133">
+        <f>"System.PZ.A110"</f>
+        <v/>
+      </c>
+      <c r="B133">
+        <f>CONCATENATE($A$2, $A$1, $A133, B$2)</f>
+        <v/>
+      </c>
+      <c r="C133">
+        <f>CONCATENATE($A$2, $A$1, $A133, C$2)</f>
+        <v/>
+      </c>
+      <c r="D133">
+        <f>CONCATENATE($A$2, $A$1, $A133, D$2)</f>
+        <v/>
+      </c>
+      <c r="E133">
+        <f>CONCATENATE($A$2, $A$1, $A133, E$2)</f>
+        <v/>
+      </c>
+      <c r="F133">
+        <f>CONCATENATE($A$2, $A$1, $A133, F$2)</f>
+        <v/>
+      </c>
+      <c r="G133">
+        <f>CONCATENATE($A$2, $A$1, $A133, G$2)</f>
+        <v/>
+      </c>
+      <c r="H133">
+        <f>CONCATENATE($A$2, $A$1, $A133, H$2)</f>
+        <v/>
+      </c>
+      <c r="I133">
+        <f>CONCATENATE($A$2, $A$1, $A133, I$2)</f>
+        <v/>
+      </c>
+      <c r="J133">
+        <f>CONCATENATE($A$2, $A$1, $A133, J$2)</f>
+        <v/>
+      </c>
+      <c r="K133">
+        <f>CurrAttrValue(D133, 0)</f>
+        <v/>
+      </c>
+      <c r="L133">
+        <f>CurrAttrValue(E133, 0)</f>
+        <v/>
+      </c>
+      <c r="M133">
+        <f>CurrAttrValue(H133, 0)</f>
+        <v/>
+      </c>
+      <c r="N133">
+        <f>CurrAttrValue(I133, 0)</f>
+        <v/>
+      </c>
+      <c r="O133">
+        <f>CurrAttrValue(J133, 0)</f>
+        <v/>
+      </c>
+      <c r="P133" s="5">
+        <f>"103"</f>
+        <v/>
+      </c>
+      <c r="Q133" s="6">
+        <f>"АОсс. ЭО от САУ КЦ (Запуск БЭО)  "</f>
+        <v/>
+      </c>
+      <c r="R133" s="7">
+        <f>IF(N133, S133, "")</f>
+        <v/>
+      </c>
+      <c r="S133" s="7">
+        <f>CurrAttrValue(C133, 0)</f>
+        <v/>
+      </c>
+      <c r="T133" s="5">
+        <f>IF(K133=-200, "д.вх.", K133)</f>
+        <v/>
+      </c>
+      <c r="U133" s="5">
+        <f>IF(L133=-200, "д.вх.", IF(N133, O133, L133))</f>
+        <v/>
+      </c>
+      <c r="V133" s="5">
+        <f>CurrAttrValue(G133, 0)</f>
+        <v/>
+      </c>
+      <c r="W133" s="5">
+        <f>IF(M133, "Блокирована", IF(N133, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" ht="20" customHeight="1">
+      <c r="A134">
+        <f>"System.PZ.A111"</f>
+        <v/>
+      </c>
+      <c r="B134">
+        <f>CONCATENATE($A$2, $A$1, $A134, B$2)</f>
+        <v/>
+      </c>
+      <c r="C134">
+        <f>CONCATENATE($A$2, $A$1, $A134, C$2)</f>
+        <v/>
+      </c>
+      <c r="D134">
+        <f>CONCATENATE($A$2, $A$1, $A134, D$2)</f>
+        <v/>
+      </c>
+      <c r="E134">
+        <f>CONCATENATE($A$2, $A$1, $A134, E$2)</f>
+        <v/>
+      </c>
+      <c r="F134">
+        <f>CONCATENATE($A$2, $A$1, $A134, F$2)</f>
+        <v/>
+      </c>
+      <c r="G134">
+        <f>CONCATENATE($A$2, $A$1, $A134, G$2)</f>
+        <v/>
+      </c>
+      <c r="H134">
+        <f>CONCATENATE($A$2, $A$1, $A134, H$2)</f>
+        <v/>
+      </c>
+      <c r="I134">
+        <f>CONCATENATE($A$2, $A$1, $A134, I$2)</f>
+        <v/>
+      </c>
+      <c r="J134">
+        <f>CONCATENATE($A$2, $A$1, $A134, J$2)</f>
+        <v/>
+      </c>
+      <c r="K134">
+        <f>CurrAttrValue(D134, 0)</f>
+        <v/>
+      </c>
+      <c r="L134">
+        <f>CurrAttrValue(E134, 0)</f>
+        <v/>
+      </c>
+      <c r="M134">
+        <f>CurrAttrValue(H134, 0)</f>
+        <v/>
+      </c>
+      <c r="N134">
+        <f>CurrAttrValue(I134, 0)</f>
+        <v/>
+      </c>
+      <c r="O134">
+        <f>CurrAttrValue(J134, 0)</f>
+        <v/>
+      </c>
+      <c r="P134" s="5">
+        <f>"104"</f>
+        <v/>
+      </c>
+      <c r="Q134" s="6">
+        <f>"АОсс. ЭО запущен (BR2)  "</f>
+        <v/>
+      </c>
+      <c r="R134" s="7">
+        <f>IF(N134, S134, "")</f>
+        <v/>
+      </c>
+      <c r="S134" s="7">
+        <f>CurrAttrValue(C134, 0)</f>
+        <v/>
+      </c>
+      <c r="T134" s="5">
+        <f>IF(K134=-200, "д.вх.", K134)</f>
+        <v/>
+      </c>
+      <c r="U134" s="5">
+        <f>IF(L134=-200, "д.вх.", IF(N134, O134, L134))</f>
+        <v/>
+      </c>
+      <c r="V134" s="5">
+        <f>CurrAttrValue(G134, 0)</f>
+        <v/>
+      </c>
+      <c r="W134" s="5">
+        <f>IF(M134, "Блокирована", IF(N134, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" ht="35" customHeight="1">
+      <c r="Q137" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="R116" s="9" t="n"/>
-      <c r="S116" s="8">
+      <c r="R137" s="9" t="n"/>
+      <c r="S137" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="T116" s="9" t="n"/>
-      <c r="U116" s="8">
+      <c r="T137" s="9" t="n"/>
+      <c r="U137" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="117" ht="35" customHeight="1">
-      <c r="Q117" s="8">
+    <row r="138" ht="35" customHeight="1">
+      <c r="Q138" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="R117" s="9" t="n"/>
-      <c r="S117" s="8">
+      <c r="R138" s="9" t="n"/>
+      <c r="S138" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="T117" s="9" t="n"/>
-      <c r="U117" s="8">
+      <c r="T138" s="9" t="n"/>
+      <c r="U138" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="118" ht="35" customHeight="1">
-      <c r="Q118" s="8">
+    <row r="139" ht="35" customHeight="1">
+      <c r="Q139" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="R118" s="9" t="n"/>
-      <c r="S118" s="8">
+      <c r="R139" s="9" t="n"/>
+      <c r="S139" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="T118" s="9" t="n"/>
-      <c r="U118" s="8">
+      <c r="T139" s="9" t="n"/>
+      <c r="U139" s="8">
+        <f>"подпись"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" ht="25" customHeight="1">
+      <c r="Q141" s="1">
+        <f>"Протокол проверки защит ГПА №1 на "</f>
+        <v/>
+      </c>
+      <c r="R141" s="2">
+        <f>R1</f>
+        <v/>
+      </c>
+      <c r="S141" s="3">
+        <f>S1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" ht="20" customHeight="1">
+      <c r="P143" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="Q143" s="4">
+        <f>"Наименование защиты  "</f>
+        <v/>
+      </c>
+      <c r="R143" s="4">
+        <f>"Таймер"</f>
+        <v/>
+      </c>
+      <c r="S143" s="4">
+        <f>"Задержка"</f>
+        <v/>
+      </c>
+      <c r="T143" s="4">
+        <f>"Уставка"</f>
+        <v/>
+      </c>
+      <c r="U143" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="V143" s="4">
+        <f>"Eд.изм"</f>
+        <v/>
+      </c>
+      <c r="W143" s="4">
+        <f>"Отметка о проверке"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" ht="20" customHeight="1">
+      <c r="A144">
+        <f>"System.PZ.A112"</f>
+        <v/>
+      </c>
+      <c r="B144">
+        <f>CONCATENATE($A$2, $A$1, $A144, B$2)</f>
+        <v/>
+      </c>
+      <c r="C144">
+        <f>CONCATENATE($A$2, $A$1, $A144, C$2)</f>
+        <v/>
+      </c>
+      <c r="D144">
+        <f>CONCATENATE($A$2, $A$1, $A144, D$2)</f>
+        <v/>
+      </c>
+      <c r="E144">
+        <f>CONCATENATE($A$2, $A$1, $A144, E$2)</f>
+        <v/>
+      </c>
+      <c r="F144">
+        <f>CONCATENATE($A$2, $A$1, $A144, F$2)</f>
+        <v/>
+      </c>
+      <c r="G144">
+        <f>CONCATENATE($A$2, $A$1, $A144, G$2)</f>
+        <v/>
+      </c>
+      <c r="H144">
+        <f>CONCATENATE($A$2, $A$1, $A144, H$2)</f>
+        <v/>
+      </c>
+      <c r="I144">
+        <f>CONCATENATE($A$2, $A$1, $A144, I$2)</f>
+        <v/>
+      </c>
+      <c r="J144">
+        <f>CONCATENATE($A$2, $A$1, $A144, J$2)</f>
+        <v/>
+      </c>
+      <c r="K144">
+        <f>CurrAttrValue(D144, 0)</f>
+        <v/>
+      </c>
+      <c r="L144">
+        <f>CurrAttrValue(E144, 0)</f>
+        <v/>
+      </c>
+      <c r="M144">
+        <f>CurrAttrValue(H144, 0)</f>
+        <v/>
+      </c>
+      <c r="N144">
+        <f>CurrAttrValue(I144, 0)</f>
+        <v/>
+      </c>
+      <c r="O144">
+        <f>CurrAttrValue(J144, 0)</f>
+        <v/>
+      </c>
+      <c r="P144" s="5">
+        <f>"105"</f>
+        <v/>
+      </c>
+      <c r="Q144" s="6">
+        <f>"АОсс. Обрыв связи с контроллером ГТУ  "</f>
+        <v/>
+      </c>
+      <c r="R144" s="7">
+        <f>IF(N144, S144, "")</f>
+        <v/>
+      </c>
+      <c r="S144" s="7">
+        <f>CurrAttrValue(C144, 0)</f>
+        <v/>
+      </c>
+      <c r="T144" s="5">
+        <f>IF(K144=-200, "д.вх.", K144)</f>
+        <v/>
+      </c>
+      <c r="U144" s="5">
+        <f>IF(L144=-200, "д.вх.", IF(N144, O144, L144))</f>
+        <v/>
+      </c>
+      <c r="V144" s="5">
+        <f>CurrAttrValue(G144, 0)</f>
+        <v/>
+      </c>
+      <c r="W144" s="5">
+        <f>IF(M144, "Блокирована", IF(N144, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" ht="20" customHeight="1">
+      <c r="A145">
+        <f>"System.PZ.A113"</f>
+        <v/>
+      </c>
+      <c r="B145">
+        <f>CONCATENATE($A$2, $A$1, $A145, B$2)</f>
+        <v/>
+      </c>
+      <c r="C145">
+        <f>CONCATENATE($A$2, $A$1, $A145, C$2)</f>
+        <v/>
+      </c>
+      <c r="D145">
+        <f>CONCATENATE($A$2, $A$1, $A145, D$2)</f>
+        <v/>
+      </c>
+      <c r="E145">
+        <f>CONCATENATE($A$2, $A$1, $A145, E$2)</f>
+        <v/>
+      </c>
+      <c r="F145">
+        <f>CONCATENATE($A$2, $A$1, $A145, F$2)</f>
+        <v/>
+      </c>
+      <c r="G145">
+        <f>CONCATENATE($A$2, $A$1, $A145, G$2)</f>
+        <v/>
+      </c>
+      <c r="H145">
+        <f>CONCATENATE($A$2, $A$1, $A145, H$2)</f>
+        <v/>
+      </c>
+      <c r="I145">
+        <f>CONCATENATE($A$2, $A$1, $A145, I$2)</f>
+        <v/>
+      </c>
+      <c r="J145">
+        <f>CONCATENATE($A$2, $A$1, $A145, J$2)</f>
+        <v/>
+      </c>
+      <c r="K145">
+        <f>CurrAttrValue(D145, 0)</f>
+        <v/>
+      </c>
+      <c r="L145">
+        <f>CurrAttrValue(E145, 0)</f>
+        <v/>
+      </c>
+      <c r="M145">
+        <f>CurrAttrValue(H145, 0)</f>
+        <v/>
+      </c>
+      <c r="N145">
+        <f>CurrAttrValue(I145, 0)</f>
+        <v/>
+      </c>
+      <c r="O145">
+        <f>CurrAttrValue(J145, 0)</f>
+        <v/>
+      </c>
+      <c r="P145" s="5">
+        <f>"106"</f>
+        <v/>
+      </c>
+      <c r="Q145" s="6">
+        <f>"АОбс. Обрыв связи САУ с СУВД НКУ  "</f>
+        <v/>
+      </c>
+      <c r="R145" s="7">
+        <f>IF(N145, S145, "")</f>
+        <v/>
+      </c>
+      <c r="S145" s="7">
+        <f>CurrAttrValue(C145, 0)</f>
+        <v/>
+      </c>
+      <c r="T145" s="5">
+        <f>IF(K145=-200, "д.вх.", K145)</f>
+        <v/>
+      </c>
+      <c r="U145" s="5">
+        <f>IF(L145=-200, "д.вх.", IF(N145, O145, L145))</f>
+        <v/>
+      </c>
+      <c r="V145" s="5">
+        <f>CurrAttrValue(G145, 0)</f>
+        <v/>
+      </c>
+      <c r="W145" s="5">
+        <f>IF(M145, "Блокирована", IF(N145, "Проверено", "-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" ht="35" customHeight="1">
+      <c r="Q148" s="8">
+        <f>"должность"</f>
+        <v/>
+      </c>
+      <c r="R148" s="9" t="n"/>
+      <c r="S148" s="8">
+        <f>"ФИО"</f>
+        <v/>
+      </c>
+      <c r="T148" s="9" t="n"/>
+      <c r="U148" s="8">
+        <f>"подпись"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" ht="35" customHeight="1">
+      <c r="Q149" s="8">
+        <f>"должность"</f>
+        <v/>
+      </c>
+      <c r="R149" s="9" t="n"/>
+      <c r="S149" s="8">
+        <f>"ФИО"</f>
+        <v/>
+      </c>
+      <c r="T149" s="9" t="n"/>
+      <c r="U149" s="8">
+        <f>"подпись"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" ht="35" customHeight="1">
+      <c r="Q150" s="8">
+        <f>"должность"</f>
+        <v/>
+      </c>
+      <c r="R150" s="9" t="n"/>
+      <c r="S150" s="8">
+        <f>"ФИО"</f>
+        <v/>
+      </c>
+      <c r="T150" s="9" t="n"/>
+      <c r="U150" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
